--- a/Bayesian_Gaussian_Demo.xlsx
+++ b/Bayesian_Gaussian_Demo.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20353"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20391"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_BE13CE6256D14893421BD59356B4A93E837F0FB0" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{CB7697FC-D10E-42F9-BFFB-08E4B27FDF59}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{689907CB-2996-47CC-8C0F-B6D4D952A038}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>variance</t>
   </si>
@@ -107,6 +107,12 @@
   </si>
   <si>
     <t>Bayesian Updating with the Gaussian Analytical Method Demonstration</t>
+  </si>
+  <si>
+    <t>4. Under the standard Gaussian assumption a naïve distribution is represented by a variance</t>
+  </si>
+  <si>
+    <t>of 1.0.</t>
   </si>
 </sst>
 </file>
@@ -624,8 +630,651 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Posterior</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="69850">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$19:$F$117</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="99"/>
+                <c:pt idx="0">
+                  <c:v>-1.7754094857059162</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.6902638745008747</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.6362417140469292</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.595602947071749</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.5625464451591367</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.5344101701113999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.5097401610692676</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.4876511103973762</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.4675620025698495</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.4490699458955434</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.4318835089414323</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.4157847027776511</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.4006059677647658</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.3862155587970597</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.3725078905732859</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1.3593969451261712</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.3468116418993488</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1.3346925063446906</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1.3229892216973176</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1.3116587960696999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-1.3006641674323567</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-1.2899731261342797</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-1.2795574715984745</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-1.2693923443454778</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-1.2594556910917343</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-1.2497278321128023</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-1.2401911080874282</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-1.2308295893556203</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-1.2216288346542392</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-1.2125756894167348</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-1.2036581159629254</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-1.1948650495818702</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-1.1861862757799069</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-1.1776123249353003</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-1.169134381347962</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-1.1607442042530558</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-1.1524340588215987</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-1.1441966555292358</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-1.1360250965583818</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-1.1279128281254749</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-1.1198535978066844</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-1.111841416081601</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-1.1038705214324538</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-1.0959353484318843</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-1.0880304983295694</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-1.0801507117103679</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-1.0722908428468116</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-1.064445835408641</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-1.0566106992232842</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-1.0487804878048776</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-1.0409502763864711</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-1.0331151402011145</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-1.0252701327629437</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-1.0174102638993874</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-1.0095304772801859</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-1.001625627177871</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-0.99369045417730162</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-0.98571955952815427</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-0.97770737780307104</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-0.96964814748428063</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-0.9615358790513735</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-0.95336432008051952</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-0.94512691678815663</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-0.93681677135669961</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-0.9284265942617933</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-0.91994865067445497</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-0.91137469982984842</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-0.90269592602788506</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-0.89390285964682992</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-0.88498528619302053</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-0.87593214095551608</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-0.86673138625413515</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-0.85736986752232691</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-0.84783314349695305</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-0.83810528451802102</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-0.82816863126427731</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-0.81800350401128064</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-0.80758784947547524</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-0.79689680817739861</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-0.78590217954005492</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-0.77457175391243704</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-0.76286846926506435</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-0.75074933371040642</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-0.73816403048358281</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-0.72505308503646959</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-0.71134541681269536</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-0.69695500784498932</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-0.68177627283210374</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-0.6656774666683225</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-0.64849102971421146</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-0.62999897303990493</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-0.60990986521237889</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-0.5878208145404864</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-0.56315080549835406</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-0.53501453045061731</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-0.50195802853800431</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-0.46131926156282355</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-0.40729710110887685</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-0.32215148990383169</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$19:$C$117</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="99"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.9999999999999992E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.10999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.11999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.12999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.13999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.18000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.19000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.20000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.21000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.22000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.23000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.24000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.25000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.26000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.27000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.28000000000000008</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.29000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.3000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.31000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.32000000000000012</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.33000000000000013</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.34000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.35000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.36000000000000015</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.37000000000000016</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.38000000000000017</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.39000000000000018</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.40000000000000019</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.4100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.42000000000000021</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.43000000000000022</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.44000000000000022</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.45000000000000023</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.46000000000000024</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.47000000000000025</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.48000000000000026</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.49000000000000027</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.50000000000000022</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.51000000000000023</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.52000000000000024</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.53000000000000025</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.54000000000000026</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.55000000000000027</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.56000000000000028</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.57000000000000028</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.58000000000000029</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.5900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.60000000000000031</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.61000000000000032</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.62000000000000033</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.63000000000000034</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.64000000000000035</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.65000000000000036</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.66000000000000036</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.67000000000000037</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.68000000000000038</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.69000000000000039</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.7000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.71000000000000041</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.72000000000000042</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.73000000000000043</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.74000000000000044</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.75000000000000044</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.76000000000000045</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.77000000000000046</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.78000000000000047</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.79000000000000048</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.80000000000000049</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.8100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.82000000000000051</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.83000000000000052</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.84000000000000052</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.85000000000000053</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.86000000000000054</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.87000000000000055</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.88000000000000056</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.89000000000000057</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.90000000000000058</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.91000000000000059</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.9200000000000006</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.9300000000000006</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.94000000000000061</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.95000000000000062</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.96000000000000063</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.97000000000000064</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.98000000000000065</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.99000000000000066</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-61A0-4B42-8813-CE54D002FAC4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="3"/>
-          <c:order val="0"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$D$18</c:f>
@@ -640,7 +1289,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -656,301 +1305,301 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="99"/>
                 <c:pt idx="0">
-                  <c:v>-1.9263478740408408</c:v>
+                  <c:v>-1.9356557911859553</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.6537489106318226</c:v>
+                  <c:v>-1.8494524299686157</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.4807936081512509</c:v>
+                  <c:v>-1.7947591610444182</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1.3506860712521696</c:v>
+                  <c:v>-1.7536155453088682</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1.2448536269514725</c:v>
+                  <c:v>-1.7201483878755575</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.1547735945968531</c:v>
+                  <c:v>-1.6916625804813317</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.0757910281791703</c:v>
+                  <c:v>-1.6666860999487914</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.0050715603096352</c:v>
+                  <c:v>-1.6443226406105087</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.94075503369021607</c:v>
+                  <c:v>-1.6239839690796873</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.88155156554460057</c:v>
+                  <c:v>-1.6052621886075502</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.82652812003661047</c:v>
+                  <c:v>-1.5878622473560093</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.77498679206609034</c:v>
+                  <c:v>-1.5715634483543506</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.72639112903880132</c:v>
+                  <c:v>-1.556196150397124</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.68031934081495649</c:v>
+                  <c:v>-1.5416269717306967</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.6364333894937898</c:v>
+                  <c:v>-1.5277490153848805</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-0.59445788320974968</c:v>
+                  <c:v>-1.5144751948052526</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-0.55416525314619547</c:v>
+                  <c:v>-1.5017335464133121</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-0.51536508784281254</c:v>
+                  <c:v>-1.4894638568183391</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.47789629505122777</c:v>
+                  <c:v>-1.4776151841785086</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-0.44162123357291339</c:v>
+                  <c:v>-1.4661440025250978</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-0.4064212470182399</c:v>
+                  <c:v>-1.4550127894130906</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-0.37219321418868434</c:v>
+                  <c:v>-1.4441889350562493</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-0.33884684918521335</c:v>
+                  <c:v>-1.4336438885464196</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-0.30630256284008694</c:v>
+                  <c:v>-1.4233524815788878</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-0.27448975019608146</c:v>
+                  <c:v>-1.4132923869057619</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-0.24334540539291727</c:v>
+                  <c:v>-1.4034436803245991</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-0.21281299101662698</c:v>
+                  <c:v>-1.3937884831352845</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-0.18284150727121617</c:v>
+                  <c:v>-1.3843106677862633</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-0.15338471955567246</c:v>
+                  <c:v>-1.3749956136129446</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-0.12440051270804064</c:v>
+                  <c:v>-1.365830002631748</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-9.5850347347453069E-2</c:v>
+                  <c:v>-1.3568016476203582</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-6.769879911450799E-2</c:v>
+                  <c:v>-1.3478993464127387</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-3.9913165673233497E-2</c:v>
+                  <c:v>-1.3391127576222417</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-1.2463129441404486E-2</c:v>
+                  <c:v>-1.3304322939875692</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.4679533592432736E-2</c:v>
+                  <c:v>-1.3218490302926309</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>4.1541206748806736E-2</c:v>
+                  <c:v>-1.3133546233989164</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>6.8146653563183779E-2</c:v>
+                  <c:v>-1.3049412423889262</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>9.4519211900603084E-2</c:v>
+                  <c:v>-1.2966015071817354</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.12068096555254632</c:v>
+                  <c:v>-1.2883284342692984</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.14665289686420063</c:v>
+                  <c:v>-1.2801153884514713</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.17245502335885107</c:v>
+                  <c:v>-1.2719560396315841</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.19810652085814967</c:v>
+                  <c:v>-1.2638443238823944</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.22362583521913923</c:v>
+                  <c:v>-1.2557744081117372</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.24903078450322333</c:v>
+                  <c:v>-1.2477406577538603</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.27433865314492656</c:v>
+                  <c:v>-1.2397376069906469</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.29956627948853087</c:v>
+                  <c:v>-1.2317599310701013</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.3247301379001708</c:v>
+                  <c:v>-1.2238024203402245</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.34984641653526705</c:v>
+                  <c:v>-1.2158599556567915</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.37493109174128963</c:v>
+                  <c:v>-1.2079274848551329</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.40000000000000058</c:v>
+                  <c:v>-1.1999999999999997</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.42506890825871163</c:v>
+                  <c:v>-1.1920725151448666</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.45015358346473422</c:v>
+                  <c:v>-1.184140044343208</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.47526986209983046</c:v>
+                  <c:v>-1.176197579659775</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.5004337205114705</c:v>
+                  <c:v>-1.1682400689298982</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.52566134685507482</c:v>
+                  <c:v>-1.1602623930093527</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.55096921549677802</c:v>
+                  <c:v>-1.1522593422461394</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.57637416478086212</c:v>
+                  <c:v>-1.1442255918882622</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.60189347914185165</c:v>
+                  <c:v>-1.136155676117605</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.62754497664115017</c:v>
+                  <c:v>-1.1280439603684154</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.65334710313580069</c:v>
+                  <c:v>-1.1198846115485284</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.67931903444745512</c:v>
+                  <c:v>-1.111671565730701</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.70548078809939829</c:v>
+                  <c:v>-1.1033984928182643</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.73185334643681754</c:v>
+                  <c:v>-1.0950587576110733</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.7584587932511947</c:v>
+                  <c:v>-1.0866453766010831</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.78532046640756858</c:v>
+                  <c:v>-1.0781509697073686</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.81246312944140586</c:v>
+                  <c:v>-1.0695677060124305</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.83991316567323493</c:v>
+                  <c:v>-1.0608872423777578</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.86769879911450931</c:v>
+                  <c:v>-1.0521006535872608</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.8958503473474545</c:v>
+                  <c:v>-1.0431983523796413</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.92440051270804202</c:v>
+                  <c:v>-1.0341699973682514</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.95338471955567416</c:v>
+                  <c:v>-1.0250043863870548</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.98284150727121744</c:v>
+                  <c:v>-1.0156893322137361</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1.0128129910166286</c:v>
+                  <c:v>-1.006211516864715</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1.0433454053929183</c:v>
+                  <c:v>-0.99655631967540037</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.0744897501960828</c:v>
+                  <c:v>-0.9867076130942376</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1.1063025628400889</c:v>
+                  <c:v>-0.97664751842111142</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1.1388468491852151</c:v>
+                  <c:v>-0.9663561114535798</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1.1721932141886866</c:v>
+                  <c:v>-0.9558110649437499</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1.2064212470182414</c:v>
+                  <c:v>-0.94498721058690882</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1.241621233572916</c:v>
+                  <c:v>-0.93385599747490144</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1.2778962950512311</c:v>
+                  <c:v>-0.92238481582149023</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1.3153650878428151</c:v>
+                  <c:v>-0.91053614318165987</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1.3541652531461972</c:v>
+                  <c:v>-0.89826645358668733</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1.3944578832097552</c:v>
+                  <c:v>-0.88552480519474552</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1.4364333894937906</c:v>
+                  <c:v>-0.8722509846151193</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1.4803193408149586</c:v>
+                  <c:v>-0.85837302826930251</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1.5263911290388035</c:v>
+                  <c:v>-0.84380384960287524</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1.5749867920660932</c:v>
+                  <c:v>-0.82843655164564844</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1.6265281200366131</c:v>
+                  <c:v>-0.81213775264398969</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1.6815515655446034</c:v>
+                  <c:v>-0.79473781139244881</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1.7407550336902204</c:v>
+                  <c:v>-0.77601603092031124</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1.8050715603096372</c:v>
+                  <c:v>-0.75567735938949054</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1.8757910281791759</c:v>
+                  <c:v>-0.73331390005120689</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1.9547735945968583</c:v>
+                  <c:v>-0.70833741951866658</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>2.0448536269514785</c:v>
+                  <c:v>-0.67985161212444056</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>2.1506860712521774</c:v>
+                  <c:v>-0.64638445469112915</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>2.2807936081512601</c:v>
+                  <c:v>-0.6052408389555789</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>2.4537489106318362</c:v>
+                  <c:v>-0.55054757003137977</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>2.7263478740408655</c:v>
+                  <c:v>-0.46434420881403671</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1270,7 +1919,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="1"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$E$18</c:f>
@@ -1283,7 +1932,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -1301,301 +1950,301 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="99"/>
                 <c:pt idx="0">
-                  <c:v>-0.77131158237191078</c:v>
+                  <c:v>-1.0807487942669751</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.59890485993723153</c:v>
+                  <c:v>-0.83692886915555831</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.48951832208883639</c:v>
+                  <c:v>-0.68223294378931976</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.40723109061773677</c:v>
+                  <c:v>-0.56586122503275638</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.34029677575111505</c:v>
+                  <c:v>-0.47120180916022925</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.28332516096266347</c:v>
+                  <c:v>-0.39063177885610512</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.23337219989758273</c:v>
+                  <c:v>-0.31998762383717283</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.18864528122101754</c:v>
+                  <c:v>-0.25673420884161602</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.1479679381593747</c:v>
+                  <c:v>-0.19920775860253759</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.11052437721510067</c:v>
+                  <c:v>-0.14625456689160155</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-7.5724494712018808E-2</c:v>
+                  <c:v>-9.7040101086753205E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-4.312689670870129E-2</c:v>
+                  <c:v>-5.0940135889675497E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-1.2392300794248023E-2</c:v>
+                  <c:v>-7.474853513398827E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.6746056538606613E-2</c:v>
+                  <c:v>3.373300661199774E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.450196923023908E-2</c:v>
+                  <c:v>7.2985794776547874E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.1049610389494644E-2</c:v>
+                  <c:v>0.11052982895298114</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9.6532907173375815E-2</c:v>
+                  <c:v>0.14656865287872478</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.12107228636332146</c:v>
+                  <c:v>0.18127257574136191</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.14476963164298273</c:v>
+                  <c:v>0.21478568282809696</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.16771199494980438</c:v>
+                  <c:v>0.24723108416949502</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.18997442117381869</c:v>
+                  <c:v>0.2787149092668264</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.21162212988750134</c:v>
+                  <c:v>0.3093293925240187</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.23271222290716076</c:v>
+                  <c:v>0.33915528810413109</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.25329503684222399</c:v>
+                  <c:v>0.3682637827228995</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.27341522618847608</c:v>
+                  <c:v>0.39671802737388384</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.29311263935080156</c:v>
+                  <c:v>0.4245743762117109</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.31242303372943087</c:v>
+                  <c:v>0.45188339783674158</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.33137866442747332</c:v>
+                  <c:v>0.47869070785324908</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.35000877277411058</c:v>
+                  <c:v>0.50503765974554371</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.3683399947365037</c:v>
+                  <c:v>0.53096192245963159</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.3863967047592835</c:v>
+                  <c:v>0.55649796666568496</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.40420130717452252</c:v>
+                  <c:v>0.58167747687397664</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.42177448475551643</c:v>
+                  <c:v>0.60652970294300912</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.43913541202486156</c:v>
+                  <c:v>0.63108176174268982</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.45630193941473784</c:v>
+                  <c:v>0.65535889759630217</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.47329075320216707</c:v>
+                  <c:v>0.67938470846311561</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.49011751522214758</c:v>
+                  <c:v>0.70318134352259654</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.50679698563652931</c:v>
+                  <c:v>0.72676967679581583</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.52334313146140299</c:v>
+                  <c:v>0.75016946062635526</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.53976922309705744</c:v>
+                  <c:v>0.77339946219428102</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.55608792073683178</c:v>
+                  <c:v>0.79647758571671567</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.57231135223521112</c:v>
+                  <c:v>0.81942098256995466</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.58845118377652539</c:v>
+                  <c:v>0.84224615123009838</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.60451868449227941</c:v>
+                  <c:v>0.86496902865575709</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.6205247860187062</c:v>
+                  <c:v>0.88760507451515047</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.63648013785979718</c:v>
+                  <c:v>0.91016934948125594</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.65239515931955105</c:v>
+                  <c:v>0.93267658867509873</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.66828008868641686</c:v>
+                  <c:v>0.95514127122305903</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.68414503028973384</c:v>
+                  <c:v>0.97757768680472712</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.70000000000000029</c:v>
+                  <c:v>1.0000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.71585496971026685</c:v>
+                  <c:v>1.0224223131952741</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.73171991131358383</c:v>
+                  <c:v>1.044858728776942</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.74760484068044963</c:v>
+                  <c:v>1.0673234113249024</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.76351986214020351</c:v>
+                  <c:v>1.0898306505187452</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.77947521398129449</c:v>
+                  <c:v>1.1123949254848506</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.79548131550772139</c:v>
+                  <c:v>1.1350309713442441</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.8115488162234753</c:v>
+                  <c:v>1.1577538487699028</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.82768864776478956</c:v>
+                  <c:v>1.1805790174300466</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.84391207926316891</c:v>
+                  <c:v>1.2035224142832854</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.86023077690294325</c:v>
+                  <c:v>1.2266005378057201</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.87665686853859781</c:v>
+                  <c:v>1.249830539373646</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.89320301436347149</c:v>
+                  <c:v>1.2732303232041853</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.90988248477785316</c:v>
+                  <c:v>1.2968186564774047</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.92670924679783373</c:v>
+                  <c:v>1.3206152915368856</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.94369806058526295</c:v>
+                  <c:v>1.3446411024036991</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.96086458797513918</c:v>
+                  <c:v>1.3689182382573113</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.97822551524448431</c:v>
+                  <c:v>1.3934702970569921</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.99579869282547828</c:v>
+                  <c:v>1.4183225231260246</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.0136032952407172</c:v>
+                  <c:v>1.4435020333343163</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.031660005263497</c:v>
+                  <c:v>1.4690380775403697</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.0499912272258904</c:v>
+                  <c:v>1.4949623402544578</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.0686213355725274</c:v>
+                  <c:v>1.5213092921467521</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1.0875769662705701</c:v>
+                  <c:v>1.54811660216326</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1.1068873606491991</c:v>
+                  <c:v>1.57542562378829</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.1265847738115247</c:v>
+                  <c:v>1.6032819726261174</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1.1467049631577773</c:v>
+                  <c:v>1.6317362172771022</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1.1672877770928403</c:v>
+                  <c:v>1.6608447118958702</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1.1883778701124998</c:v>
+                  <c:v>1.6906706074759832</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1.210025578826182</c:v>
+                  <c:v>1.7212850907331749</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1.2322880050501972</c:v>
+                  <c:v>1.7527689158305073</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1.2552303683570192</c:v>
+                  <c:v>1.7852143171719059</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1.2789277136366799</c:v>
+                  <c:v>1.8187274242586402</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1.303467092826625</c:v>
+                  <c:v>1.8534313471212767</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1.3289503896105086</c:v>
+                  <c:v>1.8894701710470236</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1.3554980307697613</c:v>
+                  <c:v>1.9270142052234527</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1.3832539434613946</c:v>
+                  <c:v>1.9662669933880044</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1.4123923007942494</c:v>
+                  <c:v>2.0074748535134006</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1.4431268967087028</c:v>
+                  <c:v>2.0509401358896779</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1.4757244947120203</c:v>
+                  <c:v>2.0970401010867556</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1.5105243772151022</c:v>
+                  <c:v>2.1462545668916038</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1.5479679381593772</c:v>
+                  <c:v>2.1992077586025411</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1.5886452812210188</c:v>
+                  <c:v>2.2567342088416176</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1.6333721998975861</c:v>
+                  <c:v>2.3199876238371777</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1.6833251609626667</c:v>
+                  <c:v>2.3906317788561102</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1.7402967757511187</c:v>
+                  <c:v>2.4712018091602346</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>1.8072310906177416</c:v>
+                  <c:v>2.5658612250327639</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1.8895183220888421</c:v>
+                  <c:v>2.682232943789328</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1.9989048599372403</c:v>
+                  <c:v>2.8369288691555705</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>2.1713115823719265</c:v>
+                  <c:v>3.0807487942669973</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1910,649 +2559,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000B-61A0-4B42-8813-CE54D002FAC4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$F$18</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Posterior</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$F$19:$F$117</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="99"/>
-                <c:pt idx="0">
-                  <c:v>-0.61131158237191074</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-0.4389048599372315</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.32951832208883636</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.24723109061773674</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-0.18029677575111502</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.12332516096266344</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-7.3372199897582702E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-2.8645281221017505E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.203206184062533E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.9475622784899365E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8.4275505287981223E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.11687310329129874</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.14760769920575201</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.17674605653860664</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.20450196923023911</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.23104961038949468</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.25653290717337585</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.28107228636332149</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.30476963164298276</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.32771199494980441</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.34997442117381872</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.37162212988750137</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.39271222290716079</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.41329503684222402</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.43341522618847611</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.45311263935080159</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.4724230337294309</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.49137866442747336</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.51000877277411061</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.52833999473650373</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.54639670475928348</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.56420130717452255</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.58177448475551641</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.59913541202486154</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.61630193941473788</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.6332907532021671</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.65011751522214767</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.66679698563652923</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.68334313146140302</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.69976922309705747</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.71608792073683181</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.73231135223521115</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.74845118377652542</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.76451868449227944</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.78052478601870623</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.79648013785979721</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.81239515931955109</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.82828008868641689</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.84414503028973387</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.86000000000000032</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.87585496971026688</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.89171991131358386</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.90760484068044966</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.92351986214020354</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.93947521398129452</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.95548131550772131</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.97154881622347533</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.9876886477647896</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>1.0039120792631691</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>1.0202307769029433</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>1.0366568685385977</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1.0532030143634714</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1.0698824847778532</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1.0867092467978337</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>1.1036980605852629</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>1.1208645879751393</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>1.1382255152444845</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>1.1557986928254782</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>1.1736032952407172</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>1.1916600052634971</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>1.2099912272258904</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>1.2286213355725275</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>1.2475769662705702</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>1.266887360649199</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1.2865847738115248</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>1.3067049631577772</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>1.3272877770928402</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>1.3483778701125</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>1.3700255788261821</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>1.3922880050501971</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>1.4152303683570193</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>1.43892771363668</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>1.4634670928266251</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>1.4889503896105087</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>1.5154980307697614</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>1.5432539434613948</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>1.5723923007942493</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>1.6031268967087029</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>1.6357244947120204</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>1.6705243772151022</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>1.7079679381593773</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>1.7486452812210187</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>1.7933721998975862</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>1.8433251609626669</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>1.9002967757511189</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>1.9672310906177417</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>2.0495183220888422</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>2.1589048599372402</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>2.3313115823719266</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$19:$C$117</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="99"/>
-                <c:pt idx="0">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.0000000000000005E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.0000000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.08</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.09</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9.9999999999999992E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.10999999999999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.11999999999999998</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.12999999999999998</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.13999999999999999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.18000000000000002</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.19000000000000003</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.20000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.21000000000000005</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.22000000000000006</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.23000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.24000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.25000000000000006</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.26000000000000006</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.27000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.28000000000000008</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.29000000000000009</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.3000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.31000000000000011</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.32000000000000012</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.33000000000000013</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.34000000000000014</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.35000000000000014</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.36000000000000015</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.37000000000000016</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.38000000000000017</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.39000000000000018</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.40000000000000019</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.4100000000000002</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.42000000000000021</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.43000000000000022</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.44000000000000022</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.45000000000000023</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.46000000000000024</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.47000000000000025</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.48000000000000026</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.49000000000000027</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.50000000000000022</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.51000000000000023</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.52000000000000024</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.53000000000000025</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.54000000000000026</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.55000000000000027</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.56000000000000028</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.57000000000000028</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.58000000000000029</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.5900000000000003</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.60000000000000031</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.61000000000000032</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.62000000000000033</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.63000000000000034</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.64000000000000035</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.65000000000000036</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.66000000000000036</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.67000000000000037</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.68000000000000038</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.69000000000000039</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.7000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.71000000000000041</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.72000000000000042</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.73000000000000043</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.74000000000000044</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.75000000000000044</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.76000000000000045</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.77000000000000046</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.78000000000000047</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.79000000000000048</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.80000000000000049</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.8100000000000005</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.82000000000000051</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.83000000000000052</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.84000000000000052</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.85000000000000053</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.86000000000000054</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.87000000000000055</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0.88000000000000056</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0.89000000000000057</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0.90000000000000058</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0.91000000000000059</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0.9200000000000006</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0.9300000000000006</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0.94000000000000061</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0.95000000000000062</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.96000000000000063</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0.97000000000000064</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.98000000000000065</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0.99000000000000066</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-61A0-4B42-8813-CE54D002FAC4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2944,8 +2950,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="10763250" y="312966"/>
-          <a:ext cx="1217612" cy="1265463"/>
+          <a:off x="11697789" y="295549"/>
+          <a:ext cx="1217612" cy="1218110"/>
           <a:chOff x="3738664" y="1071664"/>
           <a:chExt cx="4714673" cy="4714673"/>
         </a:xfrm>
@@ -27573,26 +27579,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD172"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="33" customWidth="1"/>
-    <col min="2" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" style="1" customWidth="1"/>
-    <col min="8" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.42578125" style="1" customWidth="1"/>
-    <col min="11" max="12" width="12.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="20.42578125" style="1" customWidth="1"/>
-    <col min="14" max="18" width="12.7109375" style="33" customWidth="1"/>
-    <col min="19" max="30" width="9.140625" style="33"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="12.68359375" style="33" customWidth="1"/>
+    <col min="2" max="6" width="12.68359375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.578125" style="1" customWidth="1"/>
+    <col min="8" max="9" width="12.68359375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.41796875" style="1" customWidth="1"/>
+    <col min="11" max="12" width="12.68359375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="20.41796875" style="1" customWidth="1"/>
+    <col min="14" max="18" width="12.68359375" style="33" customWidth="1"/>
+    <col min="19" max="30" width="9.15625" style="33"/>
+    <col min="31" max="16384" width="9.15625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" s="33" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" s="33" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="22"/>
       <c r="C2" s="23"/>
       <c r="D2" s="23"/>
@@ -27606,7 +27612,7 @@
       <c r="L2" s="23"/>
       <c r="M2" s="24"/>
     </row>
-    <row r="3" spans="2:13" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:13" ht="28.2" x14ac:dyDescent="1.05">
       <c r="B3" s="25"/>
       <c r="C3" s="34" t="s">
         <v>28</v>
@@ -27622,7 +27628,7 @@
       <c r="L3" s="26"/>
       <c r="M3" s="27"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="25"/>
       <c r="C4" s="26" t="s">
         <v>26</v>
@@ -27638,7 +27644,7 @@
       <c r="L4" s="26"/>
       <c r="M4" s="27"/>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="25"/>
       <c r="C5" s="26"/>
       <c r="D5" s="26"/>
@@ -27652,7 +27658,7 @@
       <c r="L5" s="26"/>
       <c r="M5" s="27"/>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="25"/>
       <c r="C6" s="26" t="s">
         <v>27</v>
@@ -27668,7 +27674,7 @@
       <c r="L6" s="26"/>
       <c r="M6" s="27"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="25"/>
       <c r="C7" s="26"/>
       <c r="D7" s="26"/>
@@ -27682,7 +27688,7 @@
       <c r="L7" s="26"/>
       <c r="M7" s="27"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="25"/>
       <c r="C8" s="26"/>
       <c r="D8" s="26"/>
@@ -27696,7 +27702,7 @@
       <c r="L8" s="26"/>
       <c r="M8" s="27"/>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="25"/>
       <c r="C9" s="26"/>
       <c r="D9" s="26"/>
@@ -27710,7 +27716,7 @@
       <c r="L9" s="26"/>
       <c r="M9" s="27"/>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="25"/>
       <c r="C10" s="26"/>
       <c r="D10" s="26"/>
@@ -27724,7 +27730,7 @@
       <c r="L10" s="26"/>
       <c r="M10" s="27"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="25"/>
       <c r="C11" s="26"/>
       <c r="D11" s="26"/>
@@ -27738,7 +27744,7 @@
       <c r="L11" s="26"/>
       <c r="M11" s="27"/>
     </row>
-    <row r="12" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B12" s="25"/>
       <c r="C12" s="26"/>
       <c r="D12" s="26"/>
@@ -27752,7 +27758,7 @@
       <c r="L12" s="26"/>
       <c r="M12" s="27"/>
     </row>
-    <row r="13" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B13" s="25"/>
       <c r="C13" s="3" t="s">
         <v>7</v>
@@ -27772,20 +27778,20 @@
       <c r="L13" s="26"/>
       <c r="M13" s="27"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="25"/>
       <c r="C14" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D14" s="8">
-        <v>0.4</v>
+        <v>-1.2</v>
       </c>
       <c r="E14" s="26"/>
       <c r="F14" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G14" s="8">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H14" s="26"/>
       <c r="I14" s="4" t="s">
@@ -27793,26 +27799,26 @@
       </c>
       <c r="J14" s="6">
         <f>(G14*D15+D14*G15)/((1-G15)*(D15-1)+1)</f>
-        <v>0.86</v>
+        <v>-1.0487804878048779</v>
       </c>
       <c r="K14" s="26"/>
       <c r="L14" s="26"/>
       <c r="M14" s="27"/>
     </row>
-    <row r="15" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B15" s="25"/>
       <c r="C15" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D15" s="9">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="E15" s="26"/>
       <c r="F15" s="5" t="s">
         <v>0</v>
       </c>
       <c r="G15" s="9">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="H15" s="26"/>
       <c r="I15" s="5" t="s">
@@ -27820,13 +27826,13 @@
       </c>
       <c r="J15" s="7">
         <f>(D15*G15)/((1-G15)*(D15-1)+1)</f>
-        <v>0.4</v>
+        <v>9.7560975609756115E-2</v>
       </c>
       <c r="K15" s="26"/>
       <c r="L15" s="26"/>
       <c r="M15" s="27"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="25"/>
       <c r="C16" s="26"/>
       <c r="D16" s="26"/>
@@ -27840,7 +27846,7 @@
       <c r="L16" s="26"/>
       <c r="M16" s="27"/>
     </row>
-    <row r="17" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B17" s="25"/>
       <c r="C17" s="26"/>
       <c r="D17" s="26"/>
@@ -27854,7 +27860,7 @@
       <c r="L17" s="26"/>
       <c r="M17" s="27"/>
     </row>
-    <row r="18" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B18" s="25"/>
       <c r="C18" s="13" t="s">
         <v>4</v>
@@ -27876,22 +27882,22 @@
       <c r="L18" s="26"/>
       <c r="M18" s="27"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="25"/>
       <c r="C19" s="10">
         <v>0.01</v>
       </c>
       <c r="D19" s="16">
         <f>_xlfn.NORM.INV(C19,$D$14,SQRT($D$15))</f>
-        <v>-1.9263478740408408</v>
+        <v>-1.9356557911859553</v>
       </c>
       <c r="E19" s="16">
         <f>_xlfn.NORM.INV(C19,$G$14,SQRT($G$15))</f>
-        <v>-0.77131158237191078</v>
+        <v>-1.0807487942669751</v>
       </c>
       <c r="F19" s="17">
         <f t="shared" ref="F19:F50" si="0">_xlfn.NORM.INV(C19,$J$14,SQRT($J$15))</f>
-        <v>-0.61131158237191074</v>
+        <v>-1.7754094857059162</v>
       </c>
       <c r="G19" s="26"/>
       <c r="H19" s="26"/>
@@ -27901,7 +27907,7 @@
       <c r="L19" s="26"/>
       <c r="M19" s="27"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="25"/>
       <c r="C20" s="11">
         <f>C19+0.01</f>
@@ -27909,15 +27915,15 @@
       </c>
       <c r="D20" s="18">
         <f t="shared" ref="D20:D83" si="1">_xlfn.NORM.INV(C20,$D$14,SQRT($D$15))</f>
-        <v>-1.6537489106318226</v>
+        <v>-1.8494524299686157</v>
       </c>
       <c r="E20" s="18">
         <f t="shared" ref="E20:E83" si="2">_xlfn.NORM.INV(C20,$G$14,SQRT($G$15))</f>
-        <v>-0.59890485993723153</v>
+        <v>-0.83692886915555831</v>
       </c>
       <c r="F20" s="19">
         <f t="shared" si="0"/>
-        <v>-0.4389048599372315</v>
+        <v>-1.6902638745008747</v>
       </c>
       <c r="G20" s="26"/>
       <c r="H20" s="26"/>
@@ -27927,7 +27933,7 @@
       <c r="L20" s="26"/>
       <c r="M20" s="27"/>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="25"/>
       <c r="C21" s="11">
         <f t="shared" ref="C21:C84" si="3">C20+0.01</f>
@@ -27935,15 +27941,15 @@
       </c>
       <c r="D21" s="18">
         <f t="shared" si="1"/>
-        <v>-1.4807936081512509</v>
+        <v>-1.7947591610444182</v>
       </c>
       <c r="E21" s="18">
         <f t="shared" si="2"/>
-        <v>-0.48951832208883639</v>
+        <v>-0.68223294378931976</v>
       </c>
       <c r="F21" s="19">
         <f t="shared" si="0"/>
-        <v>-0.32951832208883636</v>
+        <v>-1.6362417140469292</v>
       </c>
       <c r="G21" s="26"/>
       <c r="H21" s="26"/>
@@ -27953,7 +27959,7 @@
       <c r="L21" s="26"/>
       <c r="M21" s="27"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="25"/>
       <c r="C22" s="11">
         <f t="shared" si="3"/>
@@ -27961,15 +27967,15 @@
       </c>
       <c r="D22" s="18">
         <f t="shared" si="1"/>
-        <v>-1.3506860712521696</v>
+        <v>-1.7536155453088682</v>
       </c>
       <c r="E22" s="18">
         <f t="shared" si="2"/>
-        <v>-0.40723109061773677</v>
+        <v>-0.56586122503275638</v>
       </c>
       <c r="F22" s="19">
         <f t="shared" si="0"/>
-        <v>-0.24723109061773674</v>
+        <v>-1.595602947071749</v>
       </c>
       <c r="G22" s="26"/>
       <c r="H22" s="26"/>
@@ -27979,7 +27985,7 @@
       <c r="L22" s="26"/>
       <c r="M22" s="27"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="25"/>
       <c r="C23" s="11">
         <f t="shared" si="3"/>
@@ -27987,15 +27993,15 @@
       </c>
       <c r="D23" s="18">
         <f t="shared" si="1"/>
-        <v>-1.2448536269514725</v>
+        <v>-1.7201483878755575</v>
       </c>
       <c r="E23" s="18">
         <f t="shared" si="2"/>
-        <v>-0.34029677575111505</v>
+        <v>-0.47120180916022925</v>
       </c>
       <c r="F23" s="19">
         <f t="shared" si="0"/>
-        <v>-0.18029677575111502</v>
+        <v>-1.5625464451591367</v>
       </c>
       <c r="G23" s="26"/>
       <c r="H23" s="26"/>
@@ -28005,7 +28011,7 @@
       <c r="L23" s="26"/>
       <c r="M23" s="27"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="25"/>
       <c r="C24" s="11">
         <f t="shared" si="3"/>
@@ -28013,15 +28019,15 @@
       </c>
       <c r="D24" s="18">
         <f t="shared" si="1"/>
-        <v>-1.1547735945968531</v>
+        <v>-1.6916625804813317</v>
       </c>
       <c r="E24" s="18">
         <f t="shared" si="2"/>
-        <v>-0.28332516096266347</v>
+        <v>-0.39063177885610512</v>
       </c>
       <c r="F24" s="19">
         <f t="shared" si="0"/>
-        <v>-0.12332516096266344</v>
+        <v>-1.5344101701113999</v>
       </c>
       <c r="G24" s="26"/>
       <c r="H24" s="26"/>
@@ -28031,7 +28037,7 @@
       <c r="L24" s="26"/>
       <c r="M24" s="27"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="25"/>
       <c r="C25" s="11">
         <f t="shared" si="3"/>
@@ -28039,15 +28045,15 @@
       </c>
       <c r="D25" s="18">
         <f t="shared" si="1"/>
-        <v>-1.0757910281791703</v>
+        <v>-1.6666860999487914</v>
       </c>
       <c r="E25" s="18">
         <f t="shared" si="2"/>
-        <v>-0.23337219989758273</v>
+        <v>-0.31998762383717283</v>
       </c>
       <c r="F25" s="19">
         <f t="shared" si="0"/>
-        <v>-7.3372199897582702E-2</v>
+        <v>-1.5097401610692676</v>
       </c>
       <c r="G25" s="26"/>
       <c r="H25" s="26"/>
@@ -28057,7 +28063,7 @@
       <c r="L25" s="26"/>
       <c r="M25" s="27"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="25"/>
       <c r="C26" s="11">
         <f t="shared" si="3"/>
@@ -28065,15 +28071,15 @@
       </c>
       <c r="D26" s="18">
         <f t="shared" si="1"/>
-        <v>-1.0050715603096352</v>
+        <v>-1.6443226406105087</v>
       </c>
       <c r="E26" s="18">
         <f t="shared" si="2"/>
-        <v>-0.18864528122101754</v>
+        <v>-0.25673420884161602</v>
       </c>
       <c r="F26" s="19">
         <f t="shared" si="0"/>
-        <v>-2.8645281221017505E-2</v>
+        <v>-1.4876511103973762</v>
       </c>
       <c r="G26" s="26"/>
       <c r="H26" s="26"/>
@@ -28083,7 +28089,7 @@
       <c r="L26" s="26"/>
       <c r="M26" s="27"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="25"/>
       <c r="C27" s="11">
         <f t="shared" si="3"/>
@@ -28091,15 +28097,15 @@
       </c>
       <c r="D27" s="18">
         <f t="shared" si="1"/>
-        <v>-0.94075503369021607</v>
+        <v>-1.6239839690796873</v>
       </c>
       <c r="E27" s="18">
         <f t="shared" si="2"/>
-        <v>-0.1479679381593747</v>
+        <v>-0.19920775860253759</v>
       </c>
       <c r="F27" s="19">
         <f t="shared" si="0"/>
-        <v>1.203206184062533E-2</v>
+        <v>-1.4675620025698495</v>
       </c>
       <c r="G27" s="26"/>
       <c r="H27" s="26"/>
@@ -28109,7 +28115,7 @@
       <c r="L27" s="26"/>
       <c r="M27" s="27"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="25"/>
       <c r="C28" s="11">
         <f t="shared" si="3"/>
@@ -28117,15 +28123,15 @@
       </c>
       <c r="D28" s="18">
         <f t="shared" si="1"/>
-        <v>-0.88155156554460057</v>
+        <v>-1.6052621886075502</v>
       </c>
       <c r="E28" s="18">
         <f t="shared" si="2"/>
-        <v>-0.11052437721510067</v>
+        <v>-0.14625456689160155</v>
       </c>
       <c r="F28" s="19">
         <f t="shared" si="0"/>
-        <v>4.9475622784899365E-2</v>
+        <v>-1.4490699458955434</v>
       </c>
       <c r="G28" s="26"/>
       <c r="H28" s="26"/>
@@ -28135,7 +28141,7 @@
       <c r="L28" s="26"/>
       <c r="M28" s="27"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="25"/>
       <c r="C29" s="11">
         <f t="shared" si="3"/>
@@ -28143,15 +28149,15 @@
       </c>
       <c r="D29" s="18">
         <f t="shared" si="1"/>
-        <v>-0.82652812003661047</v>
+        <v>-1.5878622473560093</v>
       </c>
       <c r="E29" s="18">
         <f t="shared" si="2"/>
-        <v>-7.5724494712018808E-2</v>
+        <v>-9.7040101086753205E-2</v>
       </c>
       <c r="F29" s="19">
         <f t="shared" si="0"/>
-        <v>8.4275505287981223E-2</v>
+        <v>-1.4318835089414323</v>
       </c>
       <c r="G29" s="26"/>
       <c r="H29" s="26"/>
@@ -28161,7 +28167,7 @@
       <c r="L29" s="26"/>
       <c r="M29" s="27"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="25"/>
       <c r="C30" s="11">
         <f t="shared" si="3"/>
@@ -28169,15 +28175,15 @@
       </c>
       <c r="D30" s="18">
         <f t="shared" si="1"/>
-        <v>-0.77498679206609034</v>
+        <v>-1.5715634483543506</v>
       </c>
       <c r="E30" s="18">
         <f t="shared" si="2"/>
-        <v>-4.312689670870129E-2</v>
+        <v>-5.0940135889675497E-2</v>
       </c>
       <c r="F30" s="19">
         <f t="shared" si="0"/>
-        <v>0.11687310329129874</v>
+        <v>-1.4157847027776511</v>
       </c>
       <c r="G30" s="26"/>
       <c r="H30" s="26"/>
@@ -28187,7 +28193,7 @@
       <c r="L30" s="26"/>
       <c r="M30" s="27"/>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="25"/>
       <c r="C31" s="11">
         <f t="shared" si="3"/>
@@ -28195,15 +28201,15 @@
       </c>
       <c r="D31" s="18">
         <f t="shared" si="1"/>
-        <v>-0.72639112903880132</v>
+        <v>-1.556196150397124</v>
       </c>
       <c r="E31" s="18">
         <f t="shared" si="2"/>
-        <v>-1.2392300794248023E-2</v>
+        <v>-7.474853513398827E-3</v>
       </c>
       <c r="F31" s="19">
         <f t="shared" si="0"/>
-        <v>0.14760769920575201</v>
+        <v>-1.4006059677647658</v>
       </c>
       <c r="G31" s="26"/>
       <c r="H31" s="26"/>
@@ -28213,7 +28219,7 @@
       <c r="L31" s="26"/>
       <c r="M31" s="27"/>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="25"/>
       <c r="C32" s="11">
         <f t="shared" si="3"/>
@@ -28221,15 +28227,15 @@
       </c>
       <c r="D32" s="18">
         <f t="shared" si="1"/>
-        <v>-0.68031934081495649</v>
+        <v>-1.5416269717306967</v>
       </c>
       <c r="E32" s="18">
         <f t="shared" si="2"/>
-        <v>1.6746056538606613E-2</v>
+        <v>3.373300661199774E-2</v>
       </c>
       <c r="F32" s="19">
         <f t="shared" si="0"/>
-        <v>0.17674605653860664</v>
+        <v>-1.3862155587970597</v>
       </c>
       <c r="G32" s="26"/>
       <c r="H32" s="26"/>
@@ -28239,7 +28245,7 @@
       <c r="L32" s="26"/>
       <c r="M32" s="27"/>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="25"/>
       <c r="C33" s="11">
         <f t="shared" si="3"/>
@@ -28247,15 +28253,15 @@
       </c>
       <c r="D33" s="18">
         <f t="shared" si="1"/>
-        <v>-0.6364333894937898</v>
+        <v>-1.5277490153848805</v>
       </c>
       <c r="E33" s="18">
         <f t="shared" si="2"/>
-        <v>4.450196923023908E-2</v>
+        <v>7.2985794776547874E-2</v>
       </c>
       <c r="F33" s="19">
         <f t="shared" si="0"/>
-        <v>0.20450196923023911</v>
+        <v>-1.3725078905732859</v>
       </c>
       <c r="G33" s="26"/>
       <c r="H33" s="29" t="s">
@@ -28267,7 +28273,7 @@
       <c r="L33" s="26"/>
       <c r="M33" s="27"/>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="25"/>
       <c r="C34" s="11">
         <f t="shared" si="3"/>
@@ -28275,15 +28281,15 @@
       </c>
       <c r="D34" s="18">
         <f t="shared" si="1"/>
-        <v>-0.59445788320974968</v>
+        <v>-1.5144751948052526</v>
       </c>
       <c r="E34" s="18">
         <f t="shared" si="2"/>
-        <v>7.1049610389494644E-2</v>
+        <v>0.11052982895298114</v>
       </c>
       <c r="F34" s="19">
         <f t="shared" si="0"/>
-        <v>0.23104961038949468</v>
+        <v>-1.3593969451261712</v>
       </c>
       <c r="G34" s="26"/>
       <c r="H34" s="26" t="s">
@@ -28295,7 +28301,7 @@
       <c r="L34" s="26"/>
       <c r="M34" s="27"/>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="25"/>
       <c r="C35" s="11">
         <f t="shared" si="3"/>
@@ -28303,15 +28309,15 @@
       </c>
       <c r="D35" s="18">
         <f t="shared" si="1"/>
-        <v>-0.55416525314619547</v>
+        <v>-1.5017335464133121</v>
       </c>
       <c r="E35" s="18">
         <f t="shared" si="2"/>
-        <v>9.6532907173375815E-2</v>
+        <v>0.14656865287872478</v>
       </c>
       <c r="F35" s="19">
         <f t="shared" si="0"/>
-        <v>0.25653290717337585</v>
+        <v>-1.3468116418993488</v>
       </c>
       <c r="G35" s="26"/>
       <c r="H35" s="26" t="s">
@@ -28323,7 +28329,7 @@
       <c r="L35" s="26"/>
       <c r="M35" s="27"/>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="25"/>
       <c r="C36" s="11">
         <f t="shared" si="3"/>
@@ -28331,15 +28337,15 @@
       </c>
       <c r="D36" s="18">
         <f t="shared" si="1"/>
-        <v>-0.51536508784281254</v>
+        <v>-1.4894638568183391</v>
       </c>
       <c r="E36" s="18">
         <f t="shared" si="2"/>
-        <v>0.12107228636332146</v>
+        <v>0.18127257574136191</v>
       </c>
       <c r="F36" s="19">
         <f t="shared" si="0"/>
-        <v>0.28107228636332149</v>
+        <v>-1.3346925063446906</v>
       </c>
       <c r="G36" s="26"/>
       <c r="H36" s="26" t="s">
@@ -28351,7 +28357,7 @@
       <c r="L36" s="26"/>
       <c r="M36" s="27"/>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="25"/>
       <c r="C37" s="11">
         <f t="shared" si="3"/>
@@ -28359,15 +28365,15 @@
       </c>
       <c r="D37" s="18">
         <f t="shared" si="1"/>
-        <v>-0.47789629505122777</v>
+        <v>-1.4776151841785086</v>
       </c>
       <c r="E37" s="18">
         <f t="shared" si="2"/>
-        <v>0.14476963164298273</v>
+        <v>0.21478568282809696</v>
       </c>
       <c r="F37" s="19">
         <f t="shared" si="0"/>
-        <v>0.30476963164298276</v>
+        <v>-1.3229892216973176</v>
       </c>
       <c r="G37" s="26"/>
       <c r="H37" s="26" t="s">
@@ -28379,7 +28385,7 @@
       <c r="L37" s="26"/>
       <c r="M37" s="27"/>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="25"/>
       <c r="C38" s="11">
         <f t="shared" si="3"/>
@@ -28387,15 +28393,15 @@
       </c>
       <c r="D38" s="18">
         <f t="shared" si="1"/>
-        <v>-0.44162123357291339</v>
+        <v>-1.4661440025250978</v>
       </c>
       <c r="E38" s="18">
         <f t="shared" si="2"/>
-        <v>0.16771199494980438</v>
+        <v>0.24723108416949502</v>
       </c>
       <c r="F38" s="19">
         <f t="shared" si="0"/>
-        <v>0.32771199494980441</v>
+        <v>-1.3116587960696999</v>
       </c>
       <c r="G38" s="26"/>
       <c r="H38" s="26" t="s">
@@ -28407,7 +28413,7 @@
       <c r="L38" s="26"/>
       <c r="M38" s="27"/>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="25"/>
       <c r="C39" s="11">
         <f t="shared" si="3"/>
@@ -28415,15 +28421,15 @@
       </c>
       <c r="D39" s="18">
         <f t="shared" si="1"/>
-        <v>-0.4064212470182399</v>
+        <v>-1.4550127894130906</v>
       </c>
       <c r="E39" s="18">
         <f t="shared" si="2"/>
-        <v>0.18997442117381869</v>
+        <v>0.2787149092668264</v>
       </c>
       <c r="F39" s="19">
         <f t="shared" si="0"/>
-        <v>0.34997442117381872</v>
+        <v>-1.3006641674323567</v>
       </c>
       <c r="G39" s="26"/>
       <c r="H39" s="26" t="s">
@@ -28435,7 +28441,7 @@
       <c r="L39" s="26"/>
       <c r="M39" s="27"/>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="25"/>
       <c r="C40" s="11">
         <f t="shared" si="3"/>
@@ -28443,15 +28449,15 @@
       </c>
       <c r="D40" s="18">
         <f t="shared" si="1"/>
-        <v>-0.37219321418868434</v>
+        <v>-1.4441889350562493</v>
       </c>
       <c r="E40" s="18">
         <f t="shared" si="2"/>
-        <v>0.21162212988750134</v>
+        <v>0.3093293925240187</v>
       </c>
       <c r="F40" s="19">
         <f t="shared" si="0"/>
-        <v>0.37162212988750137</v>
+        <v>-1.2899731261342797</v>
       </c>
       <c r="G40" s="26"/>
       <c r="H40" s="26" t="s">
@@ -28463,7 +28469,7 @@
       <c r="L40" s="26"/>
       <c r="M40" s="27"/>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="25"/>
       <c r="C41" s="11">
         <f t="shared" si="3"/>
@@ -28471,15 +28477,15 @@
       </c>
       <c r="D41" s="18">
         <f t="shared" si="1"/>
-        <v>-0.33884684918521335</v>
+        <v>-1.4336438885464196</v>
       </c>
       <c r="E41" s="18">
         <f t="shared" si="2"/>
-        <v>0.23271222290716076</v>
+        <v>0.33915528810413109</v>
       </c>
       <c r="F41" s="19">
         <f t="shared" si="0"/>
-        <v>0.39271222290716079</v>
+        <v>-1.2795574715984745</v>
       </c>
       <c r="G41" s="26"/>
       <c r="H41" s="26" t="s">
@@ -28491,7 +28497,7 @@
       <c r="L41" s="26"/>
       <c r="M41" s="27"/>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="25"/>
       <c r="C42" s="11">
         <f t="shared" si="3"/>
@@ -28499,15 +28505,15 @@
       </c>
       <c r="D42" s="18">
         <f t="shared" si="1"/>
-        <v>-0.30630256284008694</v>
+        <v>-1.4233524815788878</v>
       </c>
       <c r="E42" s="18">
         <f t="shared" si="2"/>
-        <v>0.25329503684222399</v>
+        <v>0.3682637827228995</v>
       </c>
       <c r="F42" s="19">
         <f t="shared" si="0"/>
-        <v>0.41329503684222402</v>
+        <v>-1.2693923443454778</v>
       </c>
       <c r="G42" s="26"/>
       <c r="H42" s="26"/>
@@ -28517,7 +28523,7 @@
       <c r="L42" s="26"/>
       <c r="M42" s="27"/>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="25"/>
       <c r="C43" s="11">
         <f t="shared" si="3"/>
@@ -28525,15 +28531,15 @@
       </c>
       <c r="D43" s="18">
         <f t="shared" si="1"/>
-        <v>-0.27448975019608146</v>
+        <v>-1.4132923869057619</v>
       </c>
       <c r="E43" s="18">
         <f t="shared" si="2"/>
-        <v>0.27341522618847608</v>
+        <v>0.39671802737388384</v>
       </c>
       <c r="F43" s="19">
         <f t="shared" si="0"/>
-        <v>0.43341522618847611</v>
+        <v>-1.2594556910917343</v>
       </c>
       <c r="G43" s="26"/>
       <c r="H43" s="29" t="s">
@@ -28545,7 +28551,7 @@
       <c r="L43" s="26"/>
       <c r="M43" s="27"/>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="25"/>
       <c r="C44" s="11">
         <f t="shared" si="3"/>
@@ -28553,15 +28559,15 @@
       </c>
       <c r="D44" s="18">
         <f t="shared" si="1"/>
-        <v>-0.24334540539291727</v>
+        <v>-1.4034436803245991</v>
       </c>
       <c r="E44" s="18">
         <f t="shared" si="2"/>
-        <v>0.29311263935080156</v>
+        <v>0.4245743762117109</v>
       </c>
       <c r="F44" s="19">
         <f t="shared" si="0"/>
-        <v>0.45311263935080159</v>
+        <v>-1.2497278321128023</v>
       </c>
       <c r="G44" s="26"/>
       <c r="H44" s="26" t="s">
@@ -28573,7 +28579,7 @@
       <c r="L44" s="26"/>
       <c r="M44" s="27"/>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B45" s="25"/>
       <c r="C45" s="11">
         <f t="shared" si="3"/>
@@ -28581,15 +28587,15 @@
       </c>
       <c r="D45" s="18">
         <f t="shared" si="1"/>
-        <v>-0.21281299101662698</v>
+        <v>-1.3937884831352845</v>
       </c>
       <c r="E45" s="18">
         <f t="shared" si="2"/>
-        <v>0.31242303372943087</v>
+        <v>0.45188339783674158</v>
       </c>
       <c r="F45" s="19">
         <f t="shared" si="0"/>
-        <v>0.4724230337294309</v>
+        <v>-1.2401911080874282</v>
       </c>
       <c r="G45" s="26"/>
       <c r="H45" s="26" t="s">
@@ -28601,7 +28607,7 @@
       <c r="L45" s="26"/>
       <c r="M45" s="27"/>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B46" s="25"/>
       <c r="C46" s="11">
         <f t="shared" si="3"/>
@@ -28609,15 +28615,15 @@
       </c>
       <c r="D46" s="18">
         <f t="shared" si="1"/>
-        <v>-0.18284150727121617</v>
+        <v>-1.3843106677862633</v>
       </c>
       <c r="E46" s="18">
         <f t="shared" si="2"/>
-        <v>0.33137866442747332</v>
+        <v>0.47869070785324908</v>
       </c>
       <c r="F46" s="19">
         <f t="shared" si="0"/>
-        <v>0.49137866442747336</v>
+        <v>-1.2308295893556203</v>
       </c>
       <c r="G46" s="26"/>
       <c r="H46" s="26" t="s">
@@ -28629,7 +28635,7 @@
       <c r="L46" s="26"/>
       <c r="M46" s="27"/>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B47" s="25"/>
       <c r="C47" s="11">
         <f t="shared" si="3"/>
@@ -28637,15 +28643,15 @@
       </c>
       <c r="D47" s="18">
         <f t="shared" si="1"/>
-        <v>-0.15338471955567246</v>
+        <v>-1.3749956136129446</v>
       </c>
       <c r="E47" s="18">
         <f t="shared" si="2"/>
-        <v>0.35000877277411058</v>
+        <v>0.50503765974554371</v>
       </c>
       <c r="F47" s="19">
         <f t="shared" si="0"/>
-        <v>0.51000877277411061</v>
+        <v>-1.2216288346542392</v>
       </c>
       <c r="G47" s="26"/>
       <c r="H47" s="26" t="s">
@@ -28657,7 +28663,7 @@
       <c r="L47" s="26"/>
       <c r="M47" s="27"/>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B48" s="25"/>
       <c r="C48" s="11">
         <f t="shared" si="3"/>
@@ -28665,15 +28671,15 @@
       </c>
       <c r="D48" s="18">
         <f t="shared" si="1"/>
-        <v>-0.12440051270804064</v>
+        <v>-1.365830002631748</v>
       </c>
       <c r="E48" s="18">
         <f t="shared" si="2"/>
-        <v>0.3683399947365037</v>
+        <v>0.53096192245963159</v>
       </c>
       <c r="F48" s="19">
         <f t="shared" si="0"/>
-        <v>0.52833999473650373</v>
+        <v>-1.2125756894167348</v>
       </c>
       <c r="G48" s="26"/>
       <c r="H48" s="26" t="s">
@@ -28685,7 +28691,7 @@
       <c r="L48" s="26"/>
       <c r="M48" s="27"/>
     </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B49" s="25"/>
       <c r="C49" s="11">
         <f t="shared" si="3"/>
@@ -28693,15 +28699,15 @@
       </c>
       <c r="D49" s="18">
         <f t="shared" si="1"/>
-        <v>-9.5850347347453069E-2</v>
+        <v>-1.3568016476203582</v>
       </c>
       <c r="E49" s="18">
         <f t="shared" si="2"/>
-        <v>0.3863967047592835</v>
+        <v>0.55649796666568496</v>
       </c>
       <c r="F49" s="19">
         <f t="shared" si="0"/>
-        <v>0.54639670475928348</v>
+        <v>-1.2036581159629254</v>
       </c>
       <c r="G49" s="26"/>
       <c r="H49" s="26" t="s">
@@ -28713,7 +28719,7 @@
       <c r="L49" s="26"/>
       <c r="M49" s="27"/>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B50" s="25"/>
       <c r="C50" s="11">
         <f t="shared" si="3"/>
@@ -28721,25 +28727,27 @@
       </c>
       <c r="D50" s="18">
         <f t="shared" si="1"/>
-        <v>-6.769879911450799E-2</v>
+        <v>-1.3478993464127387</v>
       </c>
       <c r="E50" s="18">
         <f t="shared" si="2"/>
-        <v>0.40420130717452252</v>
+        <v>0.58167747687397664</v>
       </c>
       <c r="F50" s="19">
         <f t="shared" si="0"/>
-        <v>0.56420130717452255</v>
+        <v>-1.1948650495818702</v>
       </c>
       <c r="G50" s="26"/>
-      <c r="H50" s="26"/>
+      <c r="H50" s="26" t="s">
+        <v>29</v>
+      </c>
       <c r="I50" s="26"/>
       <c r="J50" s="26"/>
       <c r="K50" s="26"/>
       <c r="L50" s="26"/>
       <c r="M50" s="27"/>
     </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B51" s="25"/>
       <c r="C51" s="11">
         <f t="shared" si="3"/>
@@ -28747,25 +28755,27 @@
       </c>
       <c r="D51" s="18">
         <f t="shared" si="1"/>
-        <v>-3.9913165673233497E-2</v>
+        <v>-1.3391127576222417</v>
       </c>
       <c r="E51" s="18">
         <f t="shared" si="2"/>
-        <v>0.42177448475551643</v>
+        <v>0.60652970294300912</v>
       </c>
       <c r="F51" s="19">
         <f t="shared" ref="F51:F82" si="4">_xlfn.NORM.INV(C51,$J$14,SQRT($J$15))</f>
-        <v>0.58177448475551641</v>
+        <v>-1.1861862757799069</v>
       </c>
       <c r="G51" s="26"/>
-      <c r="H51" s="26"/>
+      <c r="H51" s="26" t="s">
+        <v>30</v>
+      </c>
       <c r="I51" s="26"/>
       <c r="J51" s="26"/>
       <c r="K51" s="26"/>
       <c r="L51" s="26"/>
       <c r="M51" s="27"/>
     </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B52" s="25"/>
       <c r="C52" s="11">
         <f t="shared" si="3"/>
@@ -28773,15 +28783,15 @@
       </c>
       <c r="D52" s="18">
         <f t="shared" si="1"/>
-        <v>-1.2463129441404486E-2</v>
+        <v>-1.3304322939875692</v>
       </c>
       <c r="E52" s="18">
         <f t="shared" si="2"/>
-        <v>0.43913541202486156</v>
+        <v>0.63108176174268982</v>
       </c>
       <c r="F52" s="19">
         <f t="shared" si="4"/>
-        <v>0.59913541202486154</v>
+        <v>-1.1776123249353003</v>
       </c>
       <c r="G52" s="26"/>
       <c r="H52" s="26"/>
@@ -28791,7 +28801,7 @@
       <c r="L52" s="26"/>
       <c r="M52" s="27"/>
     </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B53" s="25"/>
       <c r="C53" s="11">
         <f t="shared" si="3"/>
@@ -28799,15 +28809,15 @@
       </c>
       <c r="D53" s="18">
         <f t="shared" si="1"/>
-        <v>1.4679533592432736E-2</v>
+        <v>-1.3218490302926309</v>
       </c>
       <c r="E53" s="18">
         <f t="shared" si="2"/>
-        <v>0.45630193941473784</v>
+        <v>0.65535889759630217</v>
       </c>
       <c r="F53" s="19">
         <f t="shared" si="4"/>
-        <v>0.61630193941473788</v>
+        <v>-1.169134381347962</v>
       </c>
       <c r="G53" s="26"/>
       <c r="H53" s="26" t="s">
@@ -28819,7 +28829,7 @@
       <c r="L53" s="26"/>
       <c r="M53" s="27"/>
     </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B54" s="25"/>
       <c r="C54" s="11">
         <f t="shared" si="3"/>
@@ -28827,15 +28837,15 @@
       </c>
       <c r="D54" s="18">
         <f t="shared" si="1"/>
-        <v>4.1541206748806736E-2</v>
+        <v>-1.3133546233989164</v>
       </c>
       <c r="E54" s="18">
         <f t="shared" si="2"/>
-        <v>0.47329075320216707</v>
+        <v>0.67938470846311561</v>
       </c>
       <c r="F54" s="19">
         <f t="shared" si="4"/>
-        <v>0.6332907532021671</v>
+        <v>-1.1607442042530558</v>
       </c>
       <c r="G54" s="26"/>
       <c r="H54" s="26"/>
@@ -28845,7 +28855,7 @@
       <c r="L54" s="26"/>
       <c r="M54" s="27"/>
     </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B55" s="25"/>
       <c r="C55" s="11">
         <f t="shared" si="3"/>
@@ -28853,15 +28863,15 @@
       </c>
       <c r="D55" s="18">
         <f t="shared" si="1"/>
-        <v>6.8146653563183779E-2</v>
+        <v>-1.3049412423889262</v>
       </c>
       <c r="E55" s="18">
         <f t="shared" si="2"/>
-        <v>0.49011751522214758</v>
+        <v>0.70318134352259654</v>
       </c>
       <c r="F55" s="19">
         <f t="shared" si="4"/>
-        <v>0.65011751522214767</v>
+        <v>-1.1524340588215987</v>
       </c>
       <c r="G55" s="26"/>
       <c r="H55" s="26"/>
@@ -28871,7 +28881,7 @@
       <c r="L55" s="26"/>
       <c r="M55" s="27"/>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B56" s="25"/>
       <c r="C56" s="11">
         <f t="shared" si="3"/>
@@ -28879,15 +28889,15 @@
       </c>
       <c r="D56" s="18">
         <f t="shared" si="1"/>
-        <v>9.4519211900603084E-2</v>
+        <v>-1.2966015071817354</v>
       </c>
       <c r="E56" s="18">
         <f t="shared" si="2"/>
-        <v>0.50679698563652931</v>
+        <v>0.72676967679581583</v>
       </c>
       <c r="F56" s="19">
         <f t="shared" si="4"/>
-        <v>0.66679698563652923</v>
+        <v>-1.1441966555292358</v>
       </c>
       <c r="G56" s="26"/>
       <c r="H56" s="26"/>
@@ -28897,7 +28907,7 @@
       <c r="L56" s="26"/>
       <c r="M56" s="27"/>
     </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B57" s="25"/>
       <c r="C57" s="11">
         <f t="shared" si="3"/>
@@ -28905,15 +28915,15 @@
       </c>
       <c r="D57" s="18">
         <f t="shared" si="1"/>
-        <v>0.12068096555254632</v>
+        <v>-1.2883284342692984</v>
       </c>
       <c r="E57" s="18">
         <f t="shared" si="2"/>
-        <v>0.52334313146140299</v>
+        <v>0.75016946062635526</v>
       </c>
       <c r="F57" s="19">
         <f t="shared" si="4"/>
-        <v>0.68334313146140302</v>
+        <v>-1.1360250965583818</v>
       </c>
       <c r="G57" s="26"/>
       <c r="H57" s="26"/>
@@ -28923,7 +28933,7 @@
       <c r="L57" s="26"/>
       <c r="M57" s="27"/>
     </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B58" s="25"/>
       <c r="C58" s="11">
         <f t="shared" si="3"/>
@@ -28931,15 +28941,15 @@
       </c>
       <c r="D58" s="18">
         <f t="shared" si="1"/>
-        <v>0.14665289686420063</v>
+        <v>-1.2801153884514713</v>
       </c>
       <c r="E58" s="18">
         <f t="shared" si="2"/>
-        <v>0.53976922309705744</v>
+        <v>0.77339946219428102</v>
       </c>
       <c r="F58" s="19">
         <f t="shared" si="4"/>
-        <v>0.69976922309705747</v>
+        <v>-1.1279128281254749</v>
       </c>
       <c r="G58" s="26"/>
       <c r="H58" s="26"/>
@@ -28949,7 +28959,7 @@
       <c r="L58" s="26"/>
       <c r="M58" s="27"/>
     </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B59" s="25"/>
       <c r="C59" s="11">
         <f t="shared" si="3"/>
@@ -28957,15 +28967,15 @@
       </c>
       <c r="D59" s="18">
         <f t="shared" si="1"/>
-        <v>0.17245502335885107</v>
+        <v>-1.2719560396315841</v>
       </c>
       <c r="E59" s="18">
         <f t="shared" si="2"/>
-        <v>0.55608792073683178</v>
+        <v>0.79647758571671567</v>
       </c>
       <c r="F59" s="19">
         <f t="shared" si="4"/>
-        <v>0.71608792073683181</v>
+        <v>-1.1198535978066844</v>
       </c>
       <c r="G59" s="26"/>
       <c r="H59" s="26"/>
@@ -28975,7 +28985,7 @@
       <c r="L59" s="26"/>
       <c r="M59" s="27"/>
     </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B60" s="25"/>
       <c r="C60" s="11">
         <f t="shared" si="3"/>
@@ -28983,15 +28993,15 @@
       </c>
       <c r="D60" s="18">
         <f t="shared" si="1"/>
-        <v>0.19810652085814967</v>
+        <v>-1.2638443238823944</v>
       </c>
       <c r="E60" s="18">
         <f t="shared" si="2"/>
-        <v>0.57231135223521112</v>
+        <v>0.81942098256995466</v>
       </c>
       <c r="F60" s="19">
         <f t="shared" si="4"/>
-        <v>0.73231135223521115</v>
+        <v>-1.111841416081601</v>
       </c>
       <c r="G60" s="26"/>
       <c r="H60" s="26"/>
@@ -29001,7 +29011,7 @@
       <c r="L60" s="26"/>
       <c r="M60" s="27"/>
     </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B61" s="25"/>
       <c r="C61" s="11">
         <f t="shared" si="3"/>
@@ -29009,15 +29019,15 @@
       </c>
       <c r="D61" s="18">
         <f t="shared" si="1"/>
-        <v>0.22362583521913923</v>
+        <v>-1.2557744081117372</v>
       </c>
       <c r="E61" s="18">
         <f t="shared" si="2"/>
-        <v>0.58845118377652539</v>
+        <v>0.84224615123009838</v>
       </c>
       <c r="F61" s="19">
         <f t="shared" si="4"/>
-        <v>0.74845118377652542</v>
+        <v>-1.1038705214324538</v>
       </c>
       <c r="G61" s="26"/>
       <c r="H61" s="26"/>
@@ -29027,7 +29037,7 @@
       <c r="L61" s="26"/>
       <c r="M61" s="27"/>
     </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B62" s="25"/>
       <c r="C62" s="11">
         <f t="shared" si="3"/>
@@ -29035,15 +29045,15 @@
       </c>
       <c r="D62" s="18">
         <f t="shared" si="1"/>
-        <v>0.24903078450322333</v>
+        <v>-1.2477406577538603</v>
       </c>
       <c r="E62" s="18">
         <f t="shared" si="2"/>
-        <v>0.60451868449227941</v>
+        <v>0.86496902865575709</v>
       </c>
       <c r="F62" s="19">
         <f t="shared" si="4"/>
-        <v>0.76451868449227944</v>
+        <v>-1.0959353484318843</v>
       </c>
       <c r="G62" s="26"/>
       <c r="H62" s="26"/>
@@ -29053,7 +29063,7 @@
       <c r="L62" s="26"/>
       <c r="M62" s="27"/>
     </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B63" s="25"/>
       <c r="C63" s="11">
         <f t="shared" si="3"/>
@@ -29061,15 +29071,15 @@
       </c>
       <c r="D63" s="18">
         <f t="shared" si="1"/>
-        <v>0.27433865314492656</v>
+        <v>-1.2397376069906469</v>
       </c>
       <c r="E63" s="18">
         <f t="shared" si="2"/>
-        <v>0.6205247860187062</v>
+        <v>0.88760507451515047</v>
       </c>
       <c r="F63" s="19">
         <f t="shared" si="4"/>
-        <v>0.78052478601870623</v>
+        <v>-1.0880304983295694</v>
       </c>
       <c r="G63" s="26"/>
       <c r="H63" s="26"/>
@@ -29079,7 +29089,7 @@
       <c r="L63" s="26"/>
       <c r="M63" s="27"/>
     </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B64" s="25"/>
       <c r="C64" s="11">
         <f t="shared" si="3"/>
@@ -29087,15 +29097,15 @@
       </c>
       <c r="D64" s="18">
         <f t="shared" si="1"/>
-        <v>0.29956627948853087</v>
+        <v>-1.2317599310701013</v>
       </c>
       <c r="E64" s="18">
         <f t="shared" si="2"/>
-        <v>0.63648013785979718</v>
+        <v>0.91016934948125594</v>
       </c>
       <c r="F64" s="19">
         <f t="shared" si="4"/>
-        <v>0.79648013785979721</v>
+        <v>-1.0801507117103679</v>
       </c>
       <c r="G64" s="26"/>
       <c r="H64" s="26"/>
@@ -29105,7 +29115,7 @@
       <c r="L64" s="26"/>
       <c r="M64" s="27"/>
     </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B65" s="25"/>
       <c r="C65" s="11">
         <f t="shared" si="3"/>
@@ -29113,15 +29123,15 @@
       </c>
       <c r="D65" s="18">
         <f t="shared" si="1"/>
-        <v>0.3247301379001708</v>
+        <v>-1.2238024203402245</v>
       </c>
       <c r="E65" s="18">
         <f t="shared" si="2"/>
-        <v>0.65239515931955105</v>
+        <v>0.93267658867509873</v>
       </c>
       <c r="F65" s="19">
         <f t="shared" si="4"/>
-        <v>0.81239515931955109</v>
+        <v>-1.0722908428468116</v>
       </c>
       <c r="G65" s="26"/>
       <c r="H65" s="26"/>
@@ -29131,7 +29141,7 @@
       <c r="L65" s="26"/>
       <c r="M65" s="27"/>
     </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B66" s="25"/>
       <c r="C66" s="11">
         <f t="shared" si="3"/>
@@ -29139,15 +29149,15 @@
       </c>
       <c r="D66" s="18">
         <f t="shared" si="1"/>
-        <v>0.34984641653526705</v>
+        <v>-1.2158599556567915</v>
       </c>
       <c r="E66" s="18">
         <f t="shared" si="2"/>
-        <v>0.66828008868641686</v>
+        <v>0.95514127122305903</v>
       </c>
       <c r="F66" s="19">
         <f t="shared" si="4"/>
-        <v>0.82828008868641689</v>
+        <v>-1.064445835408641</v>
       </c>
       <c r="G66" s="26"/>
       <c r="H66" s="26"/>
@@ -29157,7 +29167,7 @@
       <c r="L66" s="26"/>
       <c r="M66" s="27"/>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B67" s="25"/>
       <c r="C67" s="11">
         <f t="shared" si="3"/>
@@ -29165,15 +29175,15 @@
       </c>
       <c r="D67" s="18">
         <f t="shared" si="1"/>
-        <v>0.37493109174128963</v>
+        <v>-1.2079274848551329</v>
       </c>
       <c r="E67" s="18">
         <f t="shared" si="2"/>
-        <v>0.68414503028973384</v>
+        <v>0.97757768680472712</v>
       </c>
       <c r="F67" s="19">
         <f t="shared" si="4"/>
-        <v>0.84414503028973387</v>
+        <v>-1.0566106992232842</v>
       </c>
       <c r="G67" s="26"/>
       <c r="H67" s="26"/>
@@ -29183,7 +29193,7 @@
       <c r="L67" s="26"/>
       <c r="M67" s="27"/>
     </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B68" s="25"/>
       <c r="C68" s="11">
         <f t="shared" si="3"/>
@@ -29191,15 +29201,15 @@
       </c>
       <c r="D68" s="18">
         <f t="shared" si="1"/>
-        <v>0.40000000000000058</v>
+        <v>-1.1999999999999997</v>
       </c>
       <c r="E68" s="18">
         <f t="shared" si="2"/>
-        <v>0.70000000000000029</v>
+        <v>1.0000000000000004</v>
       </c>
       <c r="F68" s="19">
         <f t="shared" si="4"/>
-        <v>0.86000000000000032</v>
+        <v>-1.0487804878048776</v>
       </c>
       <c r="G68" s="26"/>
       <c r="H68" s="26"/>
@@ -29209,7 +29219,7 @@
       <c r="L68" s="26"/>
       <c r="M68" s="27"/>
     </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B69" s="25"/>
       <c r="C69" s="11">
         <f t="shared" si="3"/>
@@ -29217,15 +29227,15 @@
       </c>
       <c r="D69" s="18">
         <f t="shared" si="1"/>
-        <v>0.42506890825871163</v>
+        <v>-1.1920725151448666</v>
       </c>
       <c r="E69" s="18">
         <f t="shared" si="2"/>
-        <v>0.71585496971026685</v>
+        <v>1.0224223131952741</v>
       </c>
       <c r="F69" s="19">
         <f t="shared" si="4"/>
-        <v>0.87585496971026688</v>
+        <v>-1.0409502763864711</v>
       </c>
       <c r="G69" s="26"/>
       <c r="H69" s="26"/>
@@ -29235,7 +29245,7 @@
       <c r="L69" s="26"/>
       <c r="M69" s="27"/>
     </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B70" s="25"/>
       <c r="C70" s="11">
         <f t="shared" si="3"/>
@@ -29243,15 +29253,15 @@
       </c>
       <c r="D70" s="18">
         <f t="shared" si="1"/>
-        <v>0.45015358346473422</v>
+        <v>-1.184140044343208</v>
       </c>
       <c r="E70" s="18">
         <f t="shared" si="2"/>
-        <v>0.73171991131358383</v>
+        <v>1.044858728776942</v>
       </c>
       <c r="F70" s="19">
         <f t="shared" si="4"/>
-        <v>0.89171991131358386</v>
+        <v>-1.0331151402011145</v>
       </c>
       <c r="G70" s="26"/>
       <c r="H70" s="26"/>
@@ -29261,7 +29271,7 @@
       <c r="L70" s="26"/>
       <c r="M70" s="27"/>
     </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B71" s="25"/>
       <c r="C71" s="11">
         <f t="shared" si="3"/>
@@ -29269,15 +29279,15 @@
       </c>
       <c r="D71" s="18">
         <f t="shared" si="1"/>
-        <v>0.47526986209983046</v>
+        <v>-1.176197579659775</v>
       </c>
       <c r="E71" s="18">
         <f t="shared" si="2"/>
-        <v>0.74760484068044963</v>
+        <v>1.0673234113249024</v>
       </c>
       <c r="F71" s="19">
         <f t="shared" si="4"/>
-        <v>0.90760484068044966</v>
+        <v>-1.0252701327629437</v>
       </c>
       <c r="G71" s="26"/>
       <c r="H71" s="26"/>
@@ -29287,7 +29297,7 @@
       <c r="L71" s="26"/>
       <c r="M71" s="27"/>
     </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B72" s="25"/>
       <c r="C72" s="11">
         <f t="shared" si="3"/>
@@ -29295,15 +29305,15 @@
       </c>
       <c r="D72" s="18">
         <f t="shared" si="1"/>
-        <v>0.5004337205114705</v>
+        <v>-1.1682400689298982</v>
       </c>
       <c r="E72" s="18">
         <f t="shared" si="2"/>
-        <v>0.76351986214020351</v>
+        <v>1.0898306505187452</v>
       </c>
       <c r="F72" s="19">
         <f t="shared" si="4"/>
-        <v>0.92351986214020354</v>
+        <v>-1.0174102638993874</v>
       </c>
       <c r="G72" s="26"/>
       <c r="H72" s="26"/>
@@ -29313,7 +29323,7 @@
       <c r="L72" s="26"/>
       <c r="M72" s="27"/>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B73" s="25"/>
       <c r="C73" s="11">
         <f t="shared" si="3"/>
@@ -29321,15 +29331,15 @@
       </c>
       <c r="D73" s="18">
         <f t="shared" si="1"/>
-        <v>0.52566134685507482</v>
+        <v>-1.1602623930093527</v>
       </c>
       <c r="E73" s="18">
         <f t="shared" si="2"/>
-        <v>0.77947521398129449</v>
+        <v>1.1123949254848506</v>
       </c>
       <c r="F73" s="19">
         <f t="shared" si="4"/>
-        <v>0.93947521398129452</v>
+        <v>-1.0095304772801859</v>
       </c>
       <c r="G73" s="26"/>
       <c r="H73" s="26"/>
@@ -29339,7 +29349,7 @@
       <c r="L73" s="26"/>
       <c r="M73" s="27"/>
     </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B74" s="25"/>
       <c r="C74" s="11">
         <f t="shared" si="3"/>
@@ -29347,15 +29357,15 @@
       </c>
       <c r="D74" s="18">
         <f t="shared" si="1"/>
-        <v>0.55096921549677802</v>
+        <v>-1.1522593422461394</v>
       </c>
       <c r="E74" s="18">
         <f t="shared" si="2"/>
-        <v>0.79548131550772139</v>
+        <v>1.1350309713442441</v>
       </c>
       <c r="F74" s="19">
         <f t="shared" si="4"/>
-        <v>0.95548131550772131</v>
+        <v>-1.001625627177871</v>
       </c>
       <c r="G74" s="26"/>
       <c r="H74" s="26"/>
@@ -29365,7 +29375,7 @@
       <c r="L74" s="26"/>
       <c r="M74" s="27"/>
     </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B75" s="25"/>
       <c r="C75" s="11">
         <f t="shared" si="3"/>
@@ -29373,15 +29383,15 @@
       </c>
       <c r="D75" s="18">
         <f t="shared" si="1"/>
-        <v>0.57637416478086212</v>
+        <v>-1.1442255918882622</v>
       </c>
       <c r="E75" s="18">
         <f t="shared" si="2"/>
-        <v>0.8115488162234753</v>
+        <v>1.1577538487699028</v>
       </c>
       <c r="F75" s="19">
         <f t="shared" si="4"/>
-        <v>0.97154881622347533</v>
+        <v>-0.99369045417730162</v>
       </c>
       <c r="G75" s="26"/>
       <c r="H75" s="26"/>
@@ -29391,7 +29401,7 @@
       <c r="L75" s="26"/>
       <c r="M75" s="27"/>
     </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B76" s="25"/>
       <c r="C76" s="11">
         <f t="shared" si="3"/>
@@ -29399,15 +29409,15 @@
       </c>
       <c r="D76" s="18">
         <f t="shared" si="1"/>
-        <v>0.60189347914185165</v>
+        <v>-1.136155676117605</v>
       </c>
       <c r="E76" s="18">
         <f t="shared" si="2"/>
-        <v>0.82768864776478956</v>
+        <v>1.1805790174300466</v>
       </c>
       <c r="F76" s="19">
         <f t="shared" si="4"/>
-        <v>0.9876886477647896</v>
+        <v>-0.98571955952815427</v>
       </c>
       <c r="G76" s="26"/>
       <c r="H76" s="26"/>
@@ -29417,7 +29427,7 @@
       <c r="L76" s="26"/>
       <c r="M76" s="27"/>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B77" s="25"/>
       <c r="C77" s="11">
         <f t="shared" si="3"/>
@@ -29425,15 +29435,15 @@
       </c>
       <c r="D77" s="18">
         <f t="shared" si="1"/>
-        <v>0.62754497664115017</v>
+        <v>-1.1280439603684154</v>
       </c>
       <c r="E77" s="18">
         <f t="shared" si="2"/>
-        <v>0.84391207926316891</v>
+        <v>1.2035224142832854</v>
       </c>
       <c r="F77" s="19">
         <f t="shared" si="4"/>
-        <v>1.0039120792631691</v>
+        <v>-0.97770737780307104</v>
       </c>
       <c r="G77" s="26"/>
       <c r="H77" s="26"/>
@@ -29443,7 +29453,7 @@
       <c r="L77" s="26"/>
       <c r="M77" s="27"/>
     </row>
-    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B78" s="25"/>
       <c r="C78" s="11">
         <f t="shared" si="3"/>
@@ -29451,15 +29461,15 @@
       </c>
       <c r="D78" s="18">
         <f t="shared" si="1"/>
-        <v>0.65334710313580069</v>
+        <v>-1.1198846115485284</v>
       </c>
       <c r="E78" s="18">
         <f t="shared" si="2"/>
-        <v>0.86023077690294325</v>
+        <v>1.2266005378057201</v>
       </c>
       <c r="F78" s="19">
         <f t="shared" si="4"/>
-        <v>1.0202307769029433</v>
+        <v>-0.96964814748428063</v>
       </c>
       <c r="G78" s="26"/>
       <c r="H78" s="26"/>
@@ -29469,7 +29479,7 @@
       <c r="L78" s="26"/>
       <c r="M78" s="27"/>
     </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B79" s="25"/>
       <c r="C79" s="11">
         <f t="shared" si="3"/>
@@ -29477,15 +29487,15 @@
       </c>
       <c r="D79" s="18">
         <f t="shared" si="1"/>
-        <v>0.67931903444745512</v>
+        <v>-1.111671565730701</v>
       </c>
       <c r="E79" s="18">
         <f t="shared" si="2"/>
-        <v>0.87665686853859781</v>
+        <v>1.249830539373646</v>
       </c>
       <c r="F79" s="19">
         <f t="shared" si="4"/>
-        <v>1.0366568685385977</v>
+        <v>-0.9615358790513735</v>
       </c>
       <c r="G79" s="26"/>
       <c r="H79" s="26"/>
@@ -29495,7 +29505,7 @@
       <c r="L79" s="26"/>
       <c r="M79" s="27"/>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B80" s="25"/>
       <c r="C80" s="11">
         <f t="shared" si="3"/>
@@ -29503,15 +29513,15 @@
       </c>
       <c r="D80" s="18">
         <f t="shared" si="1"/>
-        <v>0.70548078809939829</v>
+        <v>-1.1033984928182643</v>
       </c>
       <c r="E80" s="18">
         <f t="shared" si="2"/>
-        <v>0.89320301436347149</v>
+        <v>1.2732303232041853</v>
       </c>
       <c r="F80" s="19">
         <f t="shared" si="4"/>
-        <v>1.0532030143634714</v>
+        <v>-0.95336432008051952</v>
       </c>
       <c r="G80" s="26"/>
       <c r="H80" s="26"/>
@@ -29521,7 +29531,7 @@
       <c r="L80" s="26"/>
       <c r="M80" s="27"/>
     </row>
-    <row r="81" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B81" s="25"/>
       <c r="C81" s="11">
         <f t="shared" si="3"/>
@@ -29529,15 +29539,15 @@
       </c>
       <c r="D81" s="18">
         <f t="shared" si="1"/>
-        <v>0.73185334643681754</v>
+        <v>-1.0950587576110733</v>
       </c>
       <c r="E81" s="18">
         <f t="shared" si="2"/>
-        <v>0.90988248477785316</v>
+        <v>1.2968186564774047</v>
       </c>
       <c r="F81" s="19">
         <f t="shared" si="4"/>
-        <v>1.0698824847778532</v>
+        <v>-0.94512691678815663</v>
       </c>
       <c r="G81" s="26"/>
       <c r="H81" s="26"/>
@@ -29547,7 +29557,7 @@
       <c r="L81" s="26"/>
       <c r="M81" s="27"/>
     </row>
-    <row r="82" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B82" s="25"/>
       <c r="C82" s="11">
         <f t="shared" si="3"/>
@@ -29555,15 +29565,15 @@
       </c>
       <c r="D82" s="18">
         <f t="shared" si="1"/>
-        <v>0.7584587932511947</v>
+        <v>-1.0866453766010831</v>
       </c>
       <c r="E82" s="18">
         <f t="shared" si="2"/>
-        <v>0.92670924679783373</v>
+        <v>1.3206152915368856</v>
       </c>
       <c r="F82" s="19">
         <f t="shared" si="4"/>
-        <v>1.0867092467978337</v>
+        <v>-0.93681677135669961</v>
       </c>
       <c r="G82" s="26"/>
       <c r="H82" s="26"/>
@@ -29573,7 +29583,7 @@
       <c r="L82" s="26"/>
       <c r="M82" s="27"/>
     </row>
-    <row r="83" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B83" s="25"/>
       <c r="C83" s="11">
         <f t="shared" si="3"/>
@@ -29581,15 +29591,15 @@
       </c>
       <c r="D83" s="18">
         <f t="shared" si="1"/>
-        <v>0.78532046640756858</v>
+        <v>-1.0781509697073686</v>
       </c>
       <c r="E83" s="18">
         <f t="shared" si="2"/>
-        <v>0.94369806058526295</v>
+        <v>1.3446411024036991</v>
       </c>
       <c r="F83" s="19">
         <f t="shared" ref="F83:F117" si="5">_xlfn.NORM.INV(C83,$J$14,SQRT($J$15))</f>
-        <v>1.1036980605852629</v>
+        <v>-0.9284265942617933</v>
       </c>
       <c r="G83" s="26"/>
       <c r="H83" s="26"/>
@@ -29599,7 +29609,7 @@
       <c r="L83" s="26"/>
       <c r="M83" s="27"/>
     </row>
-    <row r="84" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B84" s="25"/>
       <c r="C84" s="11">
         <f t="shared" si="3"/>
@@ -29607,15 +29617,15 @@
       </c>
       <c r="D84" s="18">
         <f t="shared" ref="D84:D117" si="6">_xlfn.NORM.INV(C84,$D$14,SQRT($D$15))</f>
-        <v>0.81246312944140586</v>
+        <v>-1.0695677060124305</v>
       </c>
       <c r="E84" s="18">
         <f t="shared" ref="E84:E117" si="7">_xlfn.NORM.INV(C84,$G$14,SQRT($G$15))</f>
-        <v>0.96086458797513918</v>
+        <v>1.3689182382573113</v>
       </c>
       <c r="F84" s="19">
         <f t="shared" si="5"/>
-        <v>1.1208645879751393</v>
+        <v>-0.91994865067445497</v>
       </c>
       <c r="G84" s="26"/>
       <c r="H84" s="26"/>
@@ -29625,7 +29635,7 @@
       <c r="L84" s="26"/>
       <c r="M84" s="27"/>
     </row>
-    <row r="85" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B85" s="25"/>
       <c r="C85" s="11">
         <f t="shared" ref="C85:C117" si="8">C84+0.01</f>
@@ -29633,15 +29643,15 @@
       </c>
       <c r="D85" s="18">
         <f t="shared" si="6"/>
-        <v>0.83991316567323493</v>
+        <v>-1.0608872423777578</v>
       </c>
       <c r="E85" s="18">
         <f t="shared" si="7"/>
-        <v>0.97822551524448431</v>
+        <v>1.3934702970569921</v>
       </c>
       <c r="F85" s="19">
         <f t="shared" si="5"/>
-        <v>1.1382255152444845</v>
+        <v>-0.91137469982984842</v>
       </c>
       <c r="G85" s="26"/>
       <c r="H85" s="26"/>
@@ -29651,7 +29661,7 @@
       <c r="L85" s="26"/>
       <c r="M85" s="27"/>
     </row>
-    <row r="86" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B86" s="25"/>
       <c r="C86" s="11">
         <f t="shared" si="8"/>
@@ -29659,15 +29669,15 @@
       </c>
       <c r="D86" s="18">
         <f t="shared" si="6"/>
-        <v>0.86769879911450931</v>
+        <v>-1.0521006535872608</v>
       </c>
       <c r="E86" s="18">
         <f t="shared" si="7"/>
-        <v>0.99579869282547828</v>
+        <v>1.4183225231260246</v>
       </c>
       <c r="F86" s="19">
         <f t="shared" si="5"/>
-        <v>1.1557986928254782</v>
+        <v>-0.90269592602788506</v>
       </c>
       <c r="G86" s="26"/>
       <c r="H86" s="26"/>
@@ -29677,7 +29687,7 @@
       <c r="L86" s="26"/>
       <c r="M86" s="27"/>
     </row>
-    <row r="87" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B87" s="25"/>
       <c r="C87" s="11">
         <f t="shared" si="8"/>
@@ -29685,15 +29695,15 @@
       </c>
       <c r="D87" s="18">
         <f t="shared" si="6"/>
-        <v>0.8958503473474545</v>
+        <v>-1.0431983523796413</v>
       </c>
       <c r="E87" s="18">
         <f t="shared" si="7"/>
-        <v>1.0136032952407172</v>
+        <v>1.4435020333343163</v>
       </c>
       <c r="F87" s="19">
         <f t="shared" si="5"/>
-        <v>1.1736032952407172</v>
+        <v>-0.89390285964682992</v>
       </c>
       <c r="G87" s="26"/>
       <c r="H87" s="26"/>
@@ -29703,7 +29713,7 @@
       <c r="L87" s="26"/>
       <c r="M87" s="27"/>
     </row>
-    <row r="88" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B88" s="25"/>
       <c r="C88" s="11">
         <f t="shared" si="8"/>
@@ -29711,15 +29721,15 @@
       </c>
       <c r="D88" s="18">
         <f t="shared" si="6"/>
-        <v>0.92440051270804202</v>
+        <v>-1.0341699973682514</v>
       </c>
       <c r="E88" s="18">
         <f t="shared" si="7"/>
-        <v>1.031660005263497</v>
+        <v>1.4690380775403697</v>
       </c>
       <c r="F88" s="19">
         <f t="shared" si="5"/>
-        <v>1.1916600052634971</v>
+        <v>-0.88498528619302053</v>
       </c>
       <c r="G88" s="26"/>
       <c r="H88" s="26"/>
@@ -29729,7 +29739,7 @@
       <c r="L88" s="26"/>
       <c r="M88" s="27"/>
     </row>
-    <row r="89" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B89" s="25"/>
       <c r="C89" s="11">
         <f t="shared" si="8"/>
@@ -29737,15 +29747,15 @@
       </c>
       <c r="D89" s="18">
         <f t="shared" si="6"/>
-        <v>0.95338471955567416</v>
+        <v>-1.0250043863870548</v>
       </c>
       <c r="E89" s="18">
         <f t="shared" si="7"/>
-        <v>1.0499912272258904</v>
+        <v>1.4949623402544578</v>
       </c>
       <c r="F89" s="19">
         <f t="shared" si="5"/>
-        <v>1.2099912272258904</v>
+        <v>-0.87593214095551608</v>
       </c>
       <c r="G89" s="26"/>
       <c r="H89" s="26"/>
@@ -29755,7 +29765,7 @@
       <c r="L89" s="26"/>
       <c r="M89" s="27"/>
     </row>
-    <row r="90" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B90" s="25"/>
       <c r="C90" s="11">
         <f t="shared" si="8"/>
@@ -29763,15 +29773,15 @@
       </c>
       <c r="D90" s="18">
         <f t="shared" si="6"/>
-        <v>0.98284150727121744</v>
+        <v>-1.0156893322137361</v>
       </c>
       <c r="E90" s="18">
         <f t="shared" si="7"/>
-        <v>1.0686213355725274</v>
+        <v>1.5213092921467521</v>
       </c>
       <c r="F90" s="19">
         <f t="shared" si="5"/>
-        <v>1.2286213355725275</v>
+        <v>-0.86673138625413515</v>
       </c>
       <c r="G90" s="26"/>
       <c r="H90" s="26"/>
@@ -29781,7 +29791,7 @@
       <c r="L90" s="26"/>
       <c r="M90" s="27"/>
     </row>
-    <row r="91" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B91" s="25"/>
       <c r="C91" s="11">
         <f t="shared" si="8"/>
@@ -29789,15 +29799,15 @@
       </c>
       <c r="D91" s="18">
         <f t="shared" si="6"/>
-        <v>1.0128129910166286</v>
+        <v>-1.006211516864715</v>
       </c>
       <c r="E91" s="18">
         <f t="shared" si="7"/>
-        <v>1.0875769662705701</v>
+        <v>1.54811660216326</v>
       </c>
       <c r="F91" s="19">
         <f t="shared" si="5"/>
-        <v>1.2475769662705702</v>
+        <v>-0.85736986752232691</v>
       </c>
       <c r="G91" s="26"/>
       <c r="H91" s="26"/>
@@ -29807,7 +29817,7 @@
       <c r="L91" s="26"/>
       <c r="M91" s="27"/>
     </row>
-    <row r="92" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B92" s="25"/>
       <c r="C92" s="11">
         <f t="shared" si="8"/>
@@ -29815,15 +29825,15 @@
       </c>
       <c r="D92" s="18">
         <f t="shared" si="6"/>
-        <v>1.0433454053929183</v>
+        <v>-0.99655631967540037</v>
       </c>
       <c r="E92" s="18">
         <f t="shared" si="7"/>
-        <v>1.1068873606491991</v>
+        <v>1.57542562378829</v>
       </c>
       <c r="F92" s="19">
         <f t="shared" si="5"/>
-        <v>1.266887360649199</v>
+        <v>-0.84783314349695305</v>
       </c>
       <c r="G92" s="26"/>
       <c r="H92" s="26"/>
@@ -29833,7 +29843,7 @@
       <c r="L92" s="26"/>
       <c r="M92" s="27"/>
     </row>
-    <row r="93" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B93" s="25"/>
       <c r="C93" s="11">
         <f t="shared" si="8"/>
@@ -29841,15 +29851,15 @@
       </c>
       <c r="D93" s="18">
         <f t="shared" si="6"/>
-        <v>1.0744897501960828</v>
+        <v>-0.9867076130942376</v>
       </c>
       <c r="E93" s="18">
         <f t="shared" si="7"/>
-        <v>1.1265847738115247</v>
+        <v>1.6032819726261174</v>
       </c>
       <c r="F93" s="19">
         <f t="shared" si="5"/>
-        <v>1.2865847738115248</v>
+        <v>-0.83810528451802102</v>
       </c>
       <c r="G93" s="26"/>
       <c r="H93" s="26"/>
@@ -29859,7 +29869,7 @@
       <c r="L93" s="26"/>
       <c r="M93" s="27"/>
     </row>
-    <row r="94" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B94" s="25"/>
       <c r="C94" s="11">
         <f t="shared" si="8"/>
@@ -29867,15 +29877,15 @@
       </c>
       <c r="D94" s="18">
         <f t="shared" si="6"/>
-        <v>1.1063025628400889</v>
+        <v>-0.97664751842111142</v>
       </c>
       <c r="E94" s="18">
         <f t="shared" si="7"/>
-        <v>1.1467049631577773</v>
+        <v>1.6317362172771022</v>
       </c>
       <c r="F94" s="19">
         <f t="shared" si="5"/>
-        <v>1.3067049631577772</v>
+        <v>-0.82816863126427731</v>
       </c>
       <c r="G94" s="26"/>
       <c r="H94" s="26"/>
@@ -29885,7 +29895,7 @@
       <c r="L94" s="26"/>
       <c r="M94" s="27"/>
     </row>
-    <row r="95" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B95" s="25"/>
       <c r="C95" s="11">
         <f t="shared" si="8"/>
@@ -29893,15 +29903,15 @@
       </c>
       <c r="D95" s="18">
         <f t="shared" si="6"/>
-        <v>1.1388468491852151</v>
+        <v>-0.9663561114535798</v>
       </c>
       <c r="E95" s="18">
         <f t="shared" si="7"/>
-        <v>1.1672877770928403</v>
+        <v>1.6608447118958702</v>
       </c>
       <c r="F95" s="19">
         <f t="shared" si="5"/>
-        <v>1.3272877770928402</v>
+        <v>-0.81800350401128064</v>
       </c>
       <c r="G95" s="26"/>
       <c r="H95" s="26"/>
@@ -29911,7 +29921,7 @@
       <c r="L95" s="26"/>
       <c r="M95" s="27"/>
     </row>
-    <row r="96" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B96" s="25"/>
       <c r="C96" s="11">
         <f t="shared" si="8"/>
@@ -29919,15 +29929,15 @@
       </c>
       <c r="D96" s="18">
         <f t="shared" si="6"/>
-        <v>1.1721932141886866</v>
+        <v>-0.9558110649437499</v>
       </c>
       <c r="E96" s="18">
         <f t="shared" si="7"/>
-        <v>1.1883778701124998</v>
+        <v>1.6906706074759832</v>
       </c>
       <c r="F96" s="19">
         <f t="shared" si="5"/>
-        <v>1.3483778701125</v>
+        <v>-0.80758784947547524</v>
       </c>
       <c r="G96" s="26"/>
       <c r="H96" s="26"/>
@@ -29937,7 +29947,7 @@
       <c r="L96" s="26"/>
       <c r="M96" s="27"/>
     </row>
-    <row r="97" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B97" s="25"/>
       <c r="C97" s="11">
         <f t="shared" si="8"/>
@@ -29945,15 +29955,15 @@
       </c>
       <c r="D97" s="18">
         <f t="shared" si="6"/>
-        <v>1.2064212470182414</v>
+        <v>-0.94498721058690882</v>
       </c>
       <c r="E97" s="18">
         <f t="shared" si="7"/>
-        <v>1.210025578826182</v>
+        <v>1.7212850907331749</v>
       </c>
       <c r="F97" s="19">
         <f t="shared" si="5"/>
-        <v>1.3700255788261821</v>
+        <v>-0.79689680817739861</v>
       </c>
       <c r="G97" s="26"/>
       <c r="H97" s="26"/>
@@ -29963,7 +29973,7 @@
       <c r="L97" s="26"/>
       <c r="M97" s="27"/>
     </row>
-    <row r="98" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B98" s="25"/>
       <c r="C98" s="11">
         <f t="shared" si="8"/>
@@ -29971,15 +29981,15 @@
       </c>
       <c r="D98" s="18">
         <f t="shared" si="6"/>
-        <v>1.241621233572916</v>
+        <v>-0.93385599747490144</v>
       </c>
       <c r="E98" s="18">
         <f t="shared" si="7"/>
-        <v>1.2322880050501972</v>
+        <v>1.7527689158305073</v>
       </c>
       <c r="F98" s="19">
         <f t="shared" si="5"/>
-        <v>1.3922880050501971</v>
+        <v>-0.78590217954005492</v>
       </c>
       <c r="G98" s="26"/>
       <c r="H98" s="26"/>
@@ -29989,7 +29999,7 @@
       <c r="L98" s="26"/>
       <c r="M98" s="27"/>
     </row>
-    <row r="99" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B99" s="25"/>
       <c r="C99" s="11">
         <f t="shared" si="8"/>
@@ -29997,15 +30007,15 @@
       </c>
       <c r="D99" s="18">
         <f t="shared" si="6"/>
-        <v>1.2778962950512311</v>
+        <v>-0.92238481582149023</v>
       </c>
       <c r="E99" s="18">
         <f t="shared" si="7"/>
-        <v>1.2552303683570192</v>
+        <v>1.7852143171719059</v>
       </c>
       <c r="F99" s="19">
         <f t="shared" si="5"/>
-        <v>1.4152303683570193</v>
+        <v>-0.77457175391243704</v>
       </c>
       <c r="G99" s="26"/>
       <c r="H99" s="26"/>
@@ -30015,7 +30025,7 @@
       <c r="L99" s="26"/>
       <c r="M99" s="27"/>
     </row>
-    <row r="100" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B100" s="25"/>
       <c r="C100" s="11">
         <f t="shared" si="8"/>
@@ -30023,15 +30033,15 @@
       </c>
       <c r="D100" s="18">
         <f t="shared" si="6"/>
-        <v>1.3153650878428151</v>
+        <v>-0.91053614318165987</v>
       </c>
       <c r="E100" s="18">
         <f t="shared" si="7"/>
-        <v>1.2789277136366799</v>
+        <v>1.8187274242586402</v>
       </c>
       <c r="F100" s="19">
         <f t="shared" si="5"/>
-        <v>1.43892771363668</v>
+        <v>-0.76286846926506435</v>
       </c>
       <c r="G100" s="26"/>
       <c r="H100" s="26"/>
@@ -30041,7 +30051,7 @@
       <c r="L100" s="26"/>
       <c r="M100" s="27"/>
     </row>
-    <row r="101" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B101" s="25"/>
       <c r="C101" s="11">
         <f t="shared" si="8"/>
@@ -30049,15 +30059,15 @@
       </c>
       <c r="D101" s="18">
         <f t="shared" si="6"/>
-        <v>1.3541652531461972</v>
+        <v>-0.89826645358668733</v>
       </c>
       <c r="E101" s="18">
         <f t="shared" si="7"/>
-        <v>1.303467092826625</v>
+        <v>1.8534313471212767</v>
       </c>
       <c r="F101" s="19">
         <f t="shared" si="5"/>
-        <v>1.4634670928266251</v>
+        <v>-0.75074933371040642</v>
       </c>
       <c r="G101" s="26"/>
       <c r="H101" s="26"/>
@@ -30067,7 +30077,7 @@
       <c r="L101" s="26"/>
       <c r="M101" s="27"/>
     </row>
-    <row r="102" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B102" s="25"/>
       <c r="C102" s="11">
         <f t="shared" si="8"/>
@@ -30075,15 +30085,15 @@
       </c>
       <c r="D102" s="18">
         <f t="shared" si="6"/>
-        <v>1.3944578832097552</v>
+        <v>-0.88552480519474552</v>
       </c>
       <c r="E102" s="18">
         <f t="shared" si="7"/>
-        <v>1.3289503896105086</v>
+        <v>1.8894701710470236</v>
       </c>
       <c r="F102" s="19">
         <f t="shared" si="5"/>
-        <v>1.4889503896105087</v>
+        <v>-0.73816403048358281</v>
       </c>
       <c r="G102" s="26"/>
       <c r="H102" s="26"/>
@@ -30093,7 +30103,7 @@
       <c r="L102" s="26"/>
       <c r="M102" s="27"/>
     </row>
-    <row r="103" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B103" s="25"/>
       <c r="C103" s="11">
         <f t="shared" si="8"/>
@@ -30101,15 +30111,15 @@
       </c>
       <c r="D103" s="18">
         <f t="shared" si="6"/>
-        <v>1.4364333894937906</v>
+        <v>-0.8722509846151193</v>
       </c>
       <c r="E103" s="18">
         <f t="shared" si="7"/>
-        <v>1.3554980307697613</v>
+        <v>1.9270142052234527</v>
       </c>
       <c r="F103" s="19">
         <f t="shared" si="5"/>
-        <v>1.5154980307697614</v>
+        <v>-0.72505308503646959</v>
       </c>
       <c r="G103" s="26"/>
       <c r="H103" s="26"/>
@@ -30119,7 +30129,7 @@
       <c r="L103" s="26"/>
       <c r="M103" s="27"/>
     </row>
-    <row r="104" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B104" s="25"/>
       <c r="C104" s="11">
         <f t="shared" si="8"/>
@@ -30127,15 +30137,15 @@
       </c>
       <c r="D104" s="18">
         <f t="shared" si="6"/>
-        <v>1.4803193408149586</v>
+        <v>-0.85837302826930251</v>
       </c>
       <c r="E104" s="18">
         <f t="shared" si="7"/>
-        <v>1.3832539434613946</v>
+        <v>1.9662669933880044</v>
       </c>
       <c r="F104" s="19">
         <f t="shared" si="5"/>
-        <v>1.5432539434613948</v>
+        <v>-0.71134541681269536</v>
       </c>
       <c r="G104" s="26"/>
       <c r="H104" s="26"/>
@@ -30145,7 +30155,7 @@
       <c r="L104" s="26"/>
       <c r="M104" s="27"/>
     </row>
-    <row r="105" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B105" s="25"/>
       <c r="C105" s="11">
         <f t="shared" si="8"/>
@@ -30153,15 +30163,15 @@
       </c>
       <c r="D105" s="18">
         <f t="shared" si="6"/>
-        <v>1.5263911290388035</v>
+        <v>-0.84380384960287524</v>
       </c>
       <c r="E105" s="18">
         <f t="shared" si="7"/>
-        <v>1.4123923007942494</v>
+        <v>2.0074748535134006</v>
       </c>
       <c r="F105" s="19">
         <f t="shared" si="5"/>
-        <v>1.5723923007942493</v>
+        <v>-0.69695500784498932</v>
       </c>
       <c r="G105" s="26"/>
       <c r="H105" s="26"/>
@@ -30171,7 +30181,7 @@
       <c r="L105" s="26"/>
       <c r="M105" s="27"/>
     </row>
-    <row r="106" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B106" s="25"/>
       <c r="C106" s="11">
         <f t="shared" si="8"/>
@@ -30179,15 +30189,15 @@
       </c>
       <c r="D106" s="18">
         <f t="shared" si="6"/>
-        <v>1.5749867920660932</v>
+        <v>-0.82843655164564844</v>
       </c>
       <c r="E106" s="18">
         <f t="shared" si="7"/>
-        <v>1.4431268967087028</v>
+        <v>2.0509401358896779</v>
       </c>
       <c r="F106" s="19">
         <f t="shared" si="5"/>
-        <v>1.6031268967087029</v>
+        <v>-0.68177627283210374</v>
       </c>
       <c r="G106" s="26"/>
       <c r="H106" s="26"/>
@@ -30197,7 +30207,7 @@
       <c r="L106" s="26"/>
       <c r="M106" s="27"/>
     </row>
-    <row r="107" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B107" s="25"/>
       <c r="C107" s="11">
         <f t="shared" si="8"/>
@@ -30205,15 +30215,15 @@
       </c>
       <c r="D107" s="18">
         <f t="shared" si="6"/>
-        <v>1.6265281200366131</v>
+        <v>-0.81213775264398969</v>
       </c>
       <c r="E107" s="18">
         <f t="shared" si="7"/>
-        <v>1.4757244947120203</v>
+        <v>2.0970401010867556</v>
       </c>
       <c r="F107" s="19">
         <f t="shared" si="5"/>
-        <v>1.6357244947120204</v>
+        <v>-0.6656774666683225</v>
       </c>
       <c r="G107" s="26"/>
       <c r="H107" s="26"/>
@@ -30223,7 +30233,7 @@
       <c r="L107" s="26"/>
       <c r="M107" s="27"/>
     </row>
-    <row r="108" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B108" s="25"/>
       <c r="C108" s="11">
         <f t="shared" si="8"/>
@@ -30231,15 +30241,15 @@
       </c>
       <c r="D108" s="18">
         <f t="shared" si="6"/>
-        <v>1.6815515655446034</v>
+        <v>-0.79473781139244881</v>
       </c>
       <c r="E108" s="18">
         <f t="shared" si="7"/>
-        <v>1.5105243772151022</v>
+        <v>2.1462545668916038</v>
       </c>
       <c r="F108" s="19">
         <f t="shared" si="5"/>
-        <v>1.6705243772151022</v>
+        <v>-0.64849102971421146</v>
       </c>
       <c r="G108" s="26"/>
       <c r="H108" s="26"/>
@@ -30249,7 +30259,7 @@
       <c r="L108" s="26"/>
       <c r="M108" s="27"/>
     </row>
-    <row r="109" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B109" s="25"/>
       <c r="C109" s="11">
         <f t="shared" si="8"/>
@@ -30257,15 +30267,15 @@
       </c>
       <c r="D109" s="18">
         <f t="shared" si="6"/>
-        <v>1.7407550336902204</v>
+        <v>-0.77601603092031124</v>
       </c>
       <c r="E109" s="18">
         <f t="shared" si="7"/>
-        <v>1.5479679381593772</v>
+        <v>2.1992077586025411</v>
       </c>
       <c r="F109" s="19">
         <f t="shared" si="5"/>
-        <v>1.7079679381593773</v>
+        <v>-0.62999897303990493</v>
       </c>
       <c r="G109" s="26"/>
       <c r="H109" s="26"/>
@@ -30275,7 +30285,7 @@
       <c r="L109" s="26"/>
       <c r="M109" s="27"/>
     </row>
-    <row r="110" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B110" s="25"/>
       <c r="C110" s="11">
         <f t="shared" si="8"/>
@@ -30283,15 +30293,15 @@
       </c>
       <c r="D110" s="18">
         <f t="shared" si="6"/>
-        <v>1.8050715603096372</v>
+        <v>-0.75567735938949054</v>
       </c>
       <c r="E110" s="18">
         <f t="shared" si="7"/>
-        <v>1.5886452812210188</v>
+        <v>2.2567342088416176</v>
       </c>
       <c r="F110" s="19">
         <f t="shared" si="5"/>
-        <v>1.7486452812210187</v>
+        <v>-0.60990986521237889</v>
       </c>
       <c r="G110" s="26"/>
       <c r="H110" s="26"/>
@@ -30301,7 +30311,7 @@
       <c r="L110" s="26"/>
       <c r="M110" s="27"/>
     </row>
-    <row r="111" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B111" s="25"/>
       <c r="C111" s="11">
         <f t="shared" si="8"/>
@@ -30309,15 +30319,15 @@
       </c>
       <c r="D111" s="18">
         <f t="shared" si="6"/>
-        <v>1.8757910281791759</v>
+        <v>-0.73331390005120689</v>
       </c>
       <c r="E111" s="18">
         <f t="shared" si="7"/>
-        <v>1.6333721998975861</v>
+        <v>2.3199876238371777</v>
       </c>
       <c r="F111" s="19">
         <f t="shared" si="5"/>
-        <v>1.7933721998975862</v>
+        <v>-0.5878208145404864</v>
       </c>
       <c r="G111" s="26"/>
       <c r="H111" s="26"/>
@@ -30327,7 +30337,7 @@
       <c r="L111" s="26"/>
       <c r="M111" s="27"/>
     </row>
-    <row r="112" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B112" s="25"/>
       <c r="C112" s="11">
         <f t="shared" si="8"/>
@@ -30335,15 +30345,15 @@
       </c>
       <c r="D112" s="18">
         <f t="shared" si="6"/>
-        <v>1.9547735945968583</v>
+        <v>-0.70833741951866658</v>
       </c>
       <c r="E112" s="18">
         <f t="shared" si="7"/>
-        <v>1.6833251609626667</v>
+        <v>2.3906317788561102</v>
       </c>
       <c r="F112" s="19">
         <f t="shared" si="5"/>
-        <v>1.8433251609626669</v>
+        <v>-0.56315080549835406</v>
       </c>
       <c r="G112" s="26"/>
       <c r="H112" s="26"/>
@@ -30353,7 +30363,7 @@
       <c r="L112" s="26"/>
       <c r="M112" s="27"/>
     </row>
-    <row r="113" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B113" s="25"/>
       <c r="C113" s="11">
         <f t="shared" si="8"/>
@@ -30361,15 +30371,15 @@
       </c>
       <c r="D113" s="18">
         <f t="shared" si="6"/>
-        <v>2.0448536269514785</v>
+        <v>-0.67985161212444056</v>
       </c>
       <c r="E113" s="18">
         <f t="shared" si="7"/>
-        <v>1.7402967757511187</v>
+        <v>2.4712018091602346</v>
       </c>
       <c r="F113" s="19">
         <f t="shared" si="5"/>
-        <v>1.9002967757511189</v>
+        <v>-0.53501453045061731</v>
       </c>
       <c r="G113" s="26"/>
       <c r="H113" s="26"/>
@@ -30379,7 +30389,7 @@
       <c r="L113" s="26"/>
       <c r="M113" s="27"/>
     </row>
-    <row r="114" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B114" s="25"/>
       <c r="C114" s="11">
         <f t="shared" si="8"/>
@@ -30387,15 +30397,15 @@
       </c>
       <c r="D114" s="18">
         <f t="shared" si="6"/>
-        <v>2.1506860712521774</v>
+        <v>-0.64638445469112915</v>
       </c>
       <c r="E114" s="18">
         <f t="shared" si="7"/>
-        <v>1.8072310906177416</v>
+        <v>2.5658612250327639</v>
       </c>
       <c r="F114" s="19">
         <f t="shared" si="5"/>
-        <v>1.9672310906177417</v>
+        <v>-0.50195802853800431</v>
       </c>
       <c r="G114" s="26"/>
       <c r="H114" s="26"/>
@@ -30405,7 +30415,7 @@
       <c r="L114" s="26"/>
       <c r="M114" s="27"/>
     </row>
-    <row r="115" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B115" s="25"/>
       <c r="C115" s="11">
         <f t="shared" si="8"/>
@@ -30413,15 +30423,15 @@
       </c>
       <c r="D115" s="18">
         <f t="shared" si="6"/>
-        <v>2.2807936081512601</v>
+        <v>-0.6052408389555789</v>
       </c>
       <c r="E115" s="18">
         <f t="shared" si="7"/>
-        <v>1.8895183220888421</v>
+        <v>2.682232943789328</v>
       </c>
       <c r="F115" s="19">
         <f t="shared" si="5"/>
-        <v>2.0495183220888422</v>
+        <v>-0.46131926156282355</v>
       </c>
       <c r="G115" s="26"/>
       <c r="H115" s="26"/>
@@ -30431,7 +30441,7 @@
       <c r="L115" s="26"/>
       <c r="M115" s="27"/>
     </row>
-    <row r="116" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B116" s="25"/>
       <c r="C116" s="11">
         <f t="shared" si="8"/>
@@ -30439,15 +30449,15 @@
       </c>
       <c r="D116" s="18">
         <f t="shared" si="6"/>
-        <v>2.4537489106318362</v>
+        <v>-0.55054757003137977</v>
       </c>
       <c r="E116" s="18">
         <f t="shared" si="7"/>
-        <v>1.9989048599372403</v>
+        <v>2.8369288691555705</v>
       </c>
       <c r="F116" s="19">
         <f t="shared" si="5"/>
-        <v>2.1589048599372402</v>
+        <v>-0.40729710110887685</v>
       </c>
       <c r="G116" s="26"/>
       <c r="H116" s="26"/>
@@ -30457,7 +30467,7 @@
       <c r="L116" s="26"/>
       <c r="M116" s="27"/>
     </row>
-    <row r="117" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B117" s="25"/>
       <c r="C117" s="12">
         <f t="shared" si="8"/>
@@ -30465,15 +30475,15 @@
       </c>
       <c r="D117" s="20">
         <f t="shared" si="6"/>
-        <v>2.7263478740408655</v>
+        <v>-0.46434420881403671</v>
       </c>
       <c r="E117" s="20">
         <f t="shared" si="7"/>
-        <v>2.1713115823719265</v>
+        <v>3.0807487942669973</v>
       </c>
       <c r="F117" s="21">
         <f t="shared" si="5"/>
-        <v>2.3313115823719266</v>
+        <v>-0.32215148990383169</v>
       </c>
       <c r="G117" s="26"/>
       <c r="H117" s="26"/>
@@ -30483,7 +30493,7 @@
       <c r="L117" s="26"/>
       <c r="M117" s="27"/>
     </row>
-    <row r="118" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B118" s="30"/>
       <c r="C118" s="31"/>
       <c r="D118" s="31"/>
@@ -30497,63 +30507,351 @@
       <c r="L118" s="31"/>
       <c r="M118" s="32"/>
     </row>
-    <row r="119" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="120" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="121" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="122" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="123" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="124" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="125" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="126" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="127" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="128" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="129" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="130" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="131" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="132" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="133" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="134" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="135" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="136" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="137" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="138" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="139" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="140" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="141" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="142" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="143" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="144" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="145" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="146" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="147" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="148" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="149" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="150" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="151" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="152" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="153" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="154" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="155" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="156" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="157" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="158" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="159" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="160" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="161" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="162" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="163" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="164" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="165" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="166" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="167" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="168" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="169" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="170" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="171" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="172" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="119" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="120" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="121" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="122" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="123" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="124" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="125" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="126" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="127" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="128" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="129" s="33" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="130" s="33" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="131" s="33" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="132" s="33" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="133" s="33" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="134" s="33" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="135" s="33" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="136" s="33" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="137" s="33" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="138" s="33" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="139" s="33" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="140" s="33" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="141" s="33" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="142" s="33" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="143" s="33" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="144" s="33" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="145" s="33" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="146" s="33" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="147" s="33" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="148" s="33" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="149" s="33" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="150" s="33" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="151" s="33" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="152" s="33" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="153" s="33" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="154" s="33" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="155" s="33" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="156" s="33" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="157" s="33" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="158" s="33" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="159" s="33" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="160" s="33" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="161" s="33" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="162" s="33" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="163" s="33" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="164" s="33" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="165" s="33" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="166" s="33" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="167" s="33" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="168" s="33" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="169" s="33" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="170" s="33" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="171" s="33" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="172" s="33" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100823D1B5342B3F042933FD523EE3629B5" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cdd2da66ea3ea29d54254c9b49b020a4">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="afb4fb6b-f1a5-4d85-ba97-c4471c5b21f7" xmlns:ns4="b945c3e8-53f6-48d2-b77e-68d71228ccad" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="692fdbbb6fca6d0c7dd1a002a0132a5e" ns3:_="" ns4:_="">
+    <xsd:import namespace="afb4fb6b-f1a5-4d85-ba97-c4471c5b21f7"/>
+    <xsd:import namespace="b945c3e8-53f6-48d2-b77e-68d71228ccad"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns4:SharingHintHash" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="afb4fb6b-f1a5-4d85-ba97-c4471c5b21f7" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoTags" ma:description="" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="11" nillable="true" ma:displayName="MediaServiceDateTaken" ma:description="" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="15" nillable="true" ma:displayName="MediaServiceLocation" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="MediaServiceOCR" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="17" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="18" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="19" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="20" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="21" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="b945c3e8-53f6-48d2-b77e-68d71228ccad" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="12" nillable="true" ma:displayName="Shared With" ma:description="" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="13" nillable="true" ma:displayName="Shared With Details" ma:description="" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="SharingHintHash" ma:index="14" nillable="true" ma:displayName="Sharing Hint Hash" ma:description="" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C80302BB-4E11-4F91-9428-E9619BC7AD83}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="afb4fb6b-f1a5-4d85-ba97-c4471c5b21f7"/>
+    <ds:schemaRef ds:uri="b945c3e8-53f6-48d2-b77e-68d71228ccad"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB04692A-52BC-469C-8472-0DF6AFE4B426}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B1AE58B-BE67-4E78-B528-38DE710650EA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="afb4fb6b-f1a5-4d85-ba97-c4471c5b21f7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b945c3e8-53f6-48d2-b77e-68d71228ccad"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>